--- a/desarrollo/SIC/Documentos/PPSIC.xlsx
+++ b/desarrollo/SIC/Documentos/PPSIC.xlsx
@@ -5,14 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erik\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gay\SIC\desarrollo\SIC\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="249">
   <si>
     <t>Duración</t>
   </si>
@@ -32,9 +33,6 @@
     <t>Predecesoras</t>
   </si>
   <si>
-    <t>Sistema de seguimiento para alumnos con deficiencia academica IFB CERTUS</t>
-  </si>
-  <si>
     <t>146 días</t>
   </si>
   <si>
@@ -546,13 +544,326 @@
   </si>
   <si>
     <t xml:space="preserve">      Plan de la gestión de la configuración</t>
+  </si>
+  <si>
+    <t>SOFTWARE -  VENTAS - COMPRAS</t>
+  </si>
+  <si>
+    <t>Actividades</t>
+  </si>
+  <si>
+    <t>Rol</t>
+  </si>
+  <si>
+    <t>75 días</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>Analista Funcional</t>
+  </si>
+  <si>
+    <t>20 días</t>
+  </si>
+  <si>
+    <t>43 días</t>
+  </si>
+  <si>
+    <t>29 días</t>
+  </si>
+  <si>
+    <t>Analista QA</t>
+  </si>
+  <si>
+    <t>7 días</t>
+  </si>
+  <si>
+    <t>48 días</t>
+  </si>
+  <si>
+    <t>56 días</t>
+  </si>
+  <si>
+    <t>Desarrollador</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>1 día</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bibliotecario</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Gestor de control de cambios</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Gestor de la gestión de la configuración</t>
+    </r>
+  </si>
+  <si>
+    <t>Gestor de despliegue</t>
+  </si>
+  <si>
+    <t> Especificaciones de casos de uso</t>
+  </si>
+  <si>
+    <t> Trazabilidad casos de uso y
+ requisitos funcionales</t>
+  </si>
+  <si>
+    <t>Trazabilidad casos de uso y clases de análisis</t>
+  </si>
+  <si>
+    <t>Documentos de análisis</t>
+  </si>
+  <si>
+    <t> Documentos de Procesos de Negocio Bizagi</t>
+  </si>
+  <si>
+    <t>Modelado de Negocio</t>
+  </si>
+  <si>
+    <t>Lista de requisitos funcionales y no funcionales</t>
+  </si>
+  <si>
+    <t>Requisitos</t>
+  </si>
+  <si>
+    <t>Procesos de Ingeniería</t>
+  </si>
+  <si>
+    <t>Casos de pruebas unitarias por caso de uso</t>
+  </si>
+  <si>
+    <t>Ejecución de casos de prueba</t>
+  </si>
+  <si>
+    <t>Despliegue</t>
+  </si>
+  <si>
+    <t>Pre producción</t>
+  </si>
+  <si>
+    <t>Producción</t>
+  </si>
+  <si>
+    <t>Administración de Configuración</t>
+  </si>
+  <si>
+    <t>Ambiente</t>
+  </si>
+  <si>
+    <t>Casos de uso</t>
+  </si>
+  <si>
+    <t>Implementación</t>
+  </si>
+  <si>
+    <t>Código fuente</t>
+  </si>
+  <si>
+    <t>Pruebas</t>
+  </si>
+  <si>
+    <t>Análisis y Diseño</t>
+  </si>
+  <si>
+    <t>Cerrar el proyecto</t>
+  </si>
+  <si>
+    <t>Cierre</t>
+  </si>
+  <si>
+    <t>Controlar los costos</t>
+  </si>
+  <si>
+    <t>Controlar el cronograma</t>
+  </si>
+  <si>
+    <t>Controlar el alcance</t>
+  </si>
+  <si>
+    <t>Validar el alcance</t>
+  </si>
+  <si>
+    <t>Monitorear el involucramiento de los interesados</t>
+  </si>
+  <si>
+    <t>Controlar la calidad</t>
+  </si>
+  <si>
+    <t>Monitoreo y control</t>
+  </si>
+  <si>
+    <t>Reuniones</t>
+  </si>
+  <si>
+    <t>Observación/conversación</t>
+  </si>
+  <si>
+    <t>Juicio de expertos</t>
+  </si>
+  <si>
+    <t>interesados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestionar el involucramiento de los </t>
+  </si>
+  <si>
+    <t>Informes de calidad</t>
+  </si>
+  <si>
+    <t>Realizar el seguimiento</t>
+  </si>
+  <si>
+    <t>Levantar la No Conformidad</t>
+  </si>
+  <si>
+    <t>Ejecución del plan de calidad</t>
+  </si>
+  <si>
+    <t>Análisis de procesos</t>
+  </si>
+  <si>
+    <t>Gestionar la calidad</t>
+  </si>
+  <si>
+    <t>Ejecución</t>
+  </si>
+  <si>
+    <t>Planificar la gestión de los costos</t>
+  </si>
+  <si>
+    <t>Planificar la gestión del cronograma</t>
+  </si>
+  <si>
+    <t>Plan para la gestión del alcance</t>
+  </si>
+  <si>
+    <t>Recopilar requisitos</t>
+  </si>
+  <si>
+    <t>Planificar la gestión de la calidad</t>
+  </si>
+  <si>
+    <t>Plan de dirección del proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planificar el involucramiento de los </t>
+  </si>
+  <si>
+    <t>Identificar a los interesados</t>
+  </si>
+  <si>
+    <t>Planificación</t>
+  </si>
+  <si>
+    <t>Project Charter</t>
+  </si>
+  <si>
+    <t>Inicio</t>
+  </si>
+  <si>
+    <t>Administración</t>
+  </si>
+  <si>
+    <t>Cronograma de Proyecto v0.1</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Auditor</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -588,8 +899,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF363636"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -608,8 +960,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -680,11 +1038,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB1BBCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFB1BBCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFB1BBCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFB1BBCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFB1BBCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFB1BBCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFB1BBCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB1BBCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFB1BBCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFB1BBCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFB1BBCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFB1BBCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB1BBCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFB1BBCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFB1BBCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB1BBCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFB1BBCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFB1BBCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -723,20 +1166,101 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1018,10 +1542,664 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="48.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="31"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="20"/>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="23"/>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="20"/>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" s="20"/>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="20"/>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="41"/>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="B27" s="40"/>
+      <c r="C27" s="42"/>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" s="20"/>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="20"/>
+    </row>
+    <row r="39" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40" s="23"/>
+    </row>
+    <row r="41" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" s="20"/>
+    </row>
+    <row r="42" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C42" s="20"/>
+    </row>
+    <row r="43" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="20"/>
+    </row>
+    <row r="45" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="20"/>
+    </row>
+    <row r="46" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="20"/>
+    </row>
+    <row r="47" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="20"/>
+    </row>
+    <row r="52" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="20"/>
+    </row>
+    <row r="55" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="20"/>
+    </row>
+    <row r="58" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="B60" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="34"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="109.42578125" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1033,12 +2211,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+      <c r="A1" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="43"/>
     </row>
     <row r="2" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1048,10 +2226,10 @@
     </row>
     <row r="3" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>0</v>
@@ -1064,7 +2242,7 @@
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="8"/>
     </row>
@@ -1073,47 +2251,47 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="17"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>1.1000000000000001</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="D8" s="11">
         <v>3</v>
@@ -1121,13 +2299,13 @@
     </row>
     <row r="9" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>13</v>
       </c>
       <c r="D9" s="11">
         <v>2</v>
@@ -1138,22 +2316,22 @@
         <v>1.2</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="11">
         <v>2</v>
@@ -1161,13 +2339,13 @@
     </row>
     <row r="12" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="11">
         <v>7</v>
@@ -1175,13 +2353,13 @@
     </row>
     <row r="13" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="11">
         <v>8</v>
@@ -1189,13 +2367,13 @@
     </row>
     <row r="14" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="11">
         <v>9</v>
@@ -1203,13 +2381,13 @@
     </row>
     <row r="15" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="11">
         <v>6</v>
@@ -1217,10 +2395,10 @@
     </row>
     <row r="16" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>172</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>173</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -1230,22 +2408,22 @@
         <v>1.3</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="11">
         <v>6</v>
@@ -1253,13 +2431,13 @@
     </row>
     <row r="19" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="11">
         <v>13</v>
@@ -1267,13 +2445,13 @@
     </row>
     <row r="20" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="D20" s="11">
         <v>14</v>
@@ -1281,27 +2459,27 @@
     </row>
     <row r="21" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="11">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="11">
         <v>12</v>
@@ -1312,10 +2490,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="D23" s="7">
         <v>1</v>
@@ -1326,34 +2504,34 @@
         <v>2.1</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" s="11">
         <v>20</v>
@@ -1361,13 +2539,13 @@
     </row>
     <row r="27" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="11">
         <v>21</v>
@@ -1375,25 +2553,25 @@
     </row>
     <row r="28" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29" s="11">
         <v>22</v>
@@ -1401,13 +2579,13 @@
     </row>
     <row r="30" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" s="11">
         <v>24</v>
@@ -1415,13 +2593,13 @@
     </row>
     <row r="31" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" s="11">
         <v>25</v>
@@ -1429,13 +2607,13 @@
     </row>
     <row r="32" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" s="11">
         <v>26</v>
@@ -1443,13 +2621,13 @@
     </row>
     <row r="33" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D33" s="11">
         <v>27</v>
@@ -1457,13 +2635,13 @@
     </row>
     <row r="34" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" s="11">
         <v>19</v>
@@ -1474,10 +2652,10 @@
         <v>3</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="D35" s="7">
         <v>18</v>
@@ -1488,10 +2666,10 @@
         <v>3.1</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="D36" s="7">
         <v>18</v>
@@ -1499,13 +2677,13 @@
     </row>
     <row r="37" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D37" s="11">
         <v>18</v>
@@ -1513,13 +2691,13 @@
     </row>
     <row r="38" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D38" s="11">
         <v>32</v>
@@ -1527,13 +2705,13 @@
     </row>
     <row r="39" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39" s="11">
         <v>33</v>
@@ -1541,13 +2719,13 @@
     </row>
     <row r="40" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D40" s="11">
         <v>34</v>
@@ -1555,13 +2733,13 @@
     </row>
     <row r="41" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41" s="11">
         <v>35</v>
@@ -1569,13 +2747,13 @@
     </row>
     <row r="42" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D42" s="11">
         <v>36</v>
@@ -1586,10 +2764,10 @@
         <v>3.2</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="D43" s="7">
         <v>31</v>
@@ -1597,25 +2775,25 @@
     </row>
     <row r="44" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D45" s="11">
         <v>39</v>
@@ -1623,13 +2801,13 @@
     </row>
     <row r="46" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D46" s="11">
         <v>40</v>
@@ -1637,13 +2815,13 @@
     </row>
     <row r="47" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B47" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="D47" s="11">
         <v>41</v>
@@ -1651,13 +2829,13 @@
     </row>
     <row r="48" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D48" s="11">
         <v>42</v>
@@ -1665,13 +2843,13 @@
     </row>
     <row r="49" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B49" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>60</v>
       </c>
       <c r="D49" s="11">
         <v>43</v>
@@ -1679,13 +2857,13 @@
     </row>
     <row r="50" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D50" s="11">
         <v>38</v>
@@ -1696,10 +2874,10 @@
         <v>4</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" s="7">
         <v>30</v>
@@ -1710,22 +2888,22 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D53" s="11">
         <v>30</v>
@@ -1733,13 +2911,13 @@
     </row>
     <row r="54" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D54" s="11">
         <v>48</v>
@@ -1747,13 +2925,13 @@
     </row>
     <row r="55" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D55" s="11">
         <v>49</v>
@@ -1761,13 +2939,13 @@
     </row>
     <row r="56" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D56" s="11">
         <v>50</v>
@@ -1775,13 +2953,13 @@
     </row>
     <row r="57" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D57" s="11">
         <v>51</v>
@@ -1792,22 +2970,22 @@
         <v>4.2</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D59" s="11">
         <v>47</v>
@@ -1815,13 +2993,13 @@
     </row>
     <row r="60" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D60" s="11">
         <v>54</v>
@@ -1829,13 +3007,13 @@
     </row>
     <row r="61" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D61" s="11">
         <v>55</v>
@@ -1843,13 +3021,13 @@
     </row>
     <row r="62" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D62" s="11">
         <v>56</v>
@@ -1857,13 +3035,13 @@
     </row>
     <row r="63" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D63" s="11">
         <v>57</v>
@@ -1874,22 +3052,22 @@
         <v>4.3</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D65" s="11">
         <v>53</v>
@@ -1897,13 +3075,13 @@
     </row>
     <row r="66" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D66" s="11">
         <v>60</v>
@@ -1911,13 +3089,13 @@
     </row>
     <row r="67" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D67" s="11">
         <v>61</v>
@@ -1925,13 +3103,13 @@
     </row>
     <row r="68" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D68" s="11">
         <v>62</v>
@@ -1939,13 +3117,13 @@
     </row>
     <row r="69" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D69" s="11">
         <v>63</v>
@@ -1956,10 +3134,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D70" s="7">
         <v>59</v>
@@ -1967,13 +3145,13 @@
     </row>
     <row r="71" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D71" s="11">
         <v>59</v>
@@ -1981,13 +3159,13 @@
     </row>
     <row r="72" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D72" s="11">
         <v>66</v>
@@ -1995,13 +3173,13 @@
     </row>
     <row r="73" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D73" s="11">
         <v>67</v>
@@ -2009,13 +3187,13 @@
     </row>
     <row r="74" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D74" s="11">
         <v>68</v>
@@ -2023,13 +3201,13 @@
     </row>
     <row r="75" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D75" s="11">
         <v>69</v>
@@ -2037,13 +3215,13 @@
     </row>
     <row r="76" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D76" s="11">
         <v>65</v>
@@ -2054,10 +3232,10 @@
         <v>5</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D77" s="7">
         <v>46</v>
@@ -2068,34 +3246,34 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D80" s="11">
         <v>74</v>
@@ -2103,13 +3281,13 @@
     </row>
     <row r="81" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D81" s="11">
         <v>75</v>
@@ -2117,13 +3295,13 @@
     </row>
     <row r="82" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D82" s="11">
         <v>76</v>
@@ -2131,13 +3309,13 @@
     </row>
     <row r="83" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D83" s="11">
         <v>73</v>
@@ -2148,10 +3326,10 @@
         <v>6</v>
       </c>
       <c r="B84" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="D84" s="7">
         <v>46</v>
@@ -2162,34 +3340,34 @@
         <v>6.1</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D85" s="8"/>
     </row>
     <row r="86" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D86" s="8"/>
     </row>
     <row r="87" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D87" s="11">
         <v>81</v>
@@ -2197,13 +3375,13 @@
     </row>
     <row r="88" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D88" s="11">
         <v>82</v>
@@ -2214,10 +3392,10 @@
         <v>6.3</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D89" s="7">
         <v>80</v>
@@ -2225,37 +3403,37 @@
     </row>
     <row r="90" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D91" s="8"/>
     </row>
     <row r="92" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D92" s="11">
         <v>84</v>

--- a/desarrollo/SIC/Documentos/PPSIC.xlsx
+++ b/desarrollo/SIC/Documentos/PPSIC.xlsx
@@ -934,7 +934,7 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1229,29 +1229,29 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1545,7 +1545,7 @@
   <dimension ref="A2:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1555,7 +1555,7 @@
     <col min="3" max="4" width="48.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>173</v>
       </c>
@@ -1659,10 +1659,10 @@
       <c r="A13" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="35" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1670,8 +1670,8 @@
       <c r="A14" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
     </row>
     <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
@@ -1794,17 +1794,17 @@
       <c r="A26" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="41"/>
+      <c r="C26" s="39"/>
     </row>
     <row r="27" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="42"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="40"/>
     </row>
     <row r="28" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
@@ -2211,11 +2211,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
       <c r="D1" s="43"/>
     </row>
     <row r="2" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">

--- a/desarrollo/SIC/Documentos/PPSIC.xlsx
+++ b/desarrollo/SIC/Documentos/PPSIC.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gay\SIC\desarrollo\SIC\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASSI\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -1229,6 +1229,12 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1254,12 +1260,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1544,7 +1544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1556,11 +1556,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1659,10 +1659,10 @@
       <c r="A13" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="37" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1670,8 +1670,8 @@
       <c r="A14" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
     </row>
     <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
@@ -1794,17 +1794,17 @@
       <c r="A26" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="39"/>
+      <c r="C26" s="41"/>
     </row>
     <row r="27" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="42"/>
     </row>
     <row r="28" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
@@ -2198,7 +2198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -2211,12 +2211,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>

--- a/desarrollo/SIC/Documentos/PPSIC.xlsx
+++ b/desarrollo/SIC/Documentos/PPSIC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erik\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RevisionUr\Tecnalogia\desarrollo\SIC\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4E7775-6846-43DF-AF83-C2342ECA32F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -32,9 +33,6 @@
     <t>Predecesoras</t>
   </si>
   <si>
-    <t>Sistema de seguimiento para alumnos con deficiencia academica IFB CERTUS</t>
-  </si>
-  <si>
     <t>146 días</t>
   </si>
   <si>
@@ -546,12 +544,15 @@
   </si>
   <si>
     <t xml:space="preserve">      Plan de la gestión de la configuración</t>
+  </si>
+  <si>
+    <t>Proyecto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -723,6 +724,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -731,12 +738,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1017,14 +1018,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="109.42578125" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="109.42578125" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.85546875" style="13" customWidth="1"/>
@@ -1033,12 +1034,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+      <c r="A1" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1048,10 +1049,10 @@
     </row>
     <row r="3" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>0</v>
@@ -1064,7 +1065,7 @@
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="8"/>
     </row>
@@ -1073,47 +1074,47 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="17"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>1.1000000000000001</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="D8" s="11">
         <v>3</v>
@@ -1121,13 +1122,13 @@
     </row>
     <row r="9" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>13</v>
       </c>
       <c r="D9" s="11">
         <v>2</v>
@@ -1138,22 +1139,22 @@
         <v>1.2</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="11">
         <v>2</v>
@@ -1161,13 +1162,13 @@
     </row>
     <row r="12" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="11">
         <v>7</v>
@@ -1175,13 +1176,13 @@
     </row>
     <row r="13" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="11">
         <v>8</v>
@@ -1189,13 +1190,13 @@
     </row>
     <row r="14" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="11">
         <v>9</v>
@@ -1203,13 +1204,13 @@
     </row>
     <row r="15" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="11">
         <v>6</v>
@@ -1217,10 +1218,10 @@
     </row>
     <row r="16" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>172</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>173</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -1230,22 +1231,22 @@
         <v>1.3</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="11">
         <v>6</v>
@@ -1253,13 +1254,13 @@
     </row>
     <row r="19" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="11">
         <v>13</v>
@@ -1267,13 +1268,13 @@
     </row>
     <row r="20" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="D20" s="11">
         <v>14</v>
@@ -1281,13 +1282,13 @@
     </row>
     <row r="21" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="11">
         <v>15</v>
@@ -1295,13 +1296,13 @@
     </row>
     <row r="22" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="11">
         <v>12</v>
@@ -1312,10 +1313,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="D23" s="7">
         <v>1</v>
@@ -1326,34 +1327,34 @@
         <v>2.1</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" s="11">
         <v>20</v>
@@ -1361,13 +1362,13 @@
     </row>
     <row r="27" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="11">
         <v>21</v>
@@ -1375,25 +1376,25 @@
     </row>
     <row r="28" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29" s="11">
         <v>22</v>
@@ -1401,13 +1402,13 @@
     </row>
     <row r="30" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" s="11">
         <v>24</v>
@@ -1415,13 +1416,13 @@
     </row>
     <row r="31" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" s="11">
         <v>25</v>
@@ -1429,13 +1430,13 @@
     </row>
     <row r="32" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" s="11">
         <v>26</v>
@@ -1443,13 +1444,13 @@
     </row>
     <row r="33" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D33" s="11">
         <v>27</v>
@@ -1457,13 +1458,13 @@
     </row>
     <row r="34" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" s="11">
         <v>19</v>
@@ -1474,10 +1475,10 @@
         <v>3</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="D35" s="7">
         <v>18</v>
@@ -1488,10 +1489,10 @@
         <v>3.1</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="D36" s="7">
         <v>18</v>
@@ -1499,13 +1500,13 @@
     </row>
     <row r="37" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D37" s="11">
         <v>18</v>
@@ -1513,13 +1514,13 @@
     </row>
     <row r="38" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D38" s="11">
         <v>32</v>
@@ -1527,13 +1528,13 @@
     </row>
     <row r="39" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39" s="11">
         <v>33</v>
@@ -1541,13 +1542,13 @@
     </row>
     <row r="40" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D40" s="11">
         <v>34</v>
@@ -1555,13 +1556,13 @@
     </row>
     <row r="41" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41" s="11">
         <v>35</v>
@@ -1569,13 +1570,13 @@
     </row>
     <row r="42" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D42" s="11">
         <v>36</v>
@@ -1586,10 +1587,10 @@
         <v>3.2</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="D43" s="7">
         <v>31</v>
@@ -1597,25 +1598,25 @@
     </row>
     <row r="44" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D45" s="11">
         <v>39</v>
@@ -1623,13 +1624,13 @@
     </row>
     <row r="46" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D46" s="11">
         <v>40</v>
@@ -1637,13 +1638,13 @@
     </row>
     <row r="47" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B47" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="D47" s="11">
         <v>41</v>
@@ -1651,13 +1652,13 @@
     </row>
     <row r="48" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D48" s="11">
         <v>42</v>
@@ -1665,13 +1666,13 @@
     </row>
     <row r="49" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B49" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>60</v>
       </c>
       <c r="D49" s="11">
         <v>43</v>
@@ -1679,13 +1680,13 @@
     </row>
     <row r="50" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D50" s="11">
         <v>38</v>
@@ -1696,10 +1697,10 @@
         <v>4</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" s="7">
         <v>30</v>
@@ -1710,22 +1711,22 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D53" s="11">
         <v>30</v>
@@ -1733,13 +1734,13 @@
     </row>
     <row r="54" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D54" s="11">
         <v>48</v>
@@ -1747,13 +1748,13 @@
     </row>
     <row r="55" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D55" s="11">
         <v>49</v>
@@ -1761,13 +1762,13 @@
     </row>
     <row r="56" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D56" s="11">
         <v>50</v>
@@ -1775,13 +1776,13 @@
     </row>
     <row r="57" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D57" s="11">
         <v>51</v>
@@ -1792,22 +1793,22 @@
         <v>4.2</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D59" s="11">
         <v>47</v>
@@ -1815,13 +1816,13 @@
     </row>
     <row r="60" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D60" s="11">
         <v>54</v>
@@ -1829,13 +1830,13 @@
     </row>
     <row r="61" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D61" s="11">
         <v>55</v>
@@ -1843,13 +1844,13 @@
     </row>
     <row r="62" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D62" s="11">
         <v>56</v>
@@ -1857,13 +1858,13 @@
     </row>
     <row r="63" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D63" s="11">
         <v>57</v>
@@ -1874,22 +1875,22 @@
         <v>4.3</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D65" s="11">
         <v>53</v>
@@ -1897,13 +1898,13 @@
     </row>
     <row r="66" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D66" s="11">
         <v>60</v>
@@ -1911,13 +1912,13 @@
     </row>
     <row r="67" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D67" s="11">
         <v>61</v>
@@ -1925,13 +1926,13 @@
     </row>
     <row r="68" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D68" s="11">
         <v>62</v>
@@ -1939,13 +1940,13 @@
     </row>
     <row r="69" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D69" s="11">
         <v>63</v>
@@ -1956,10 +1957,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D70" s="7">
         <v>59</v>
@@ -1967,13 +1968,13 @@
     </row>
     <row r="71" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D71" s="11">
         <v>59</v>
@@ -1981,13 +1982,13 @@
     </row>
     <row r="72" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D72" s="11">
         <v>66</v>
@@ -1995,13 +1996,13 @@
     </row>
     <row r="73" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D73" s="11">
         <v>67</v>
@@ -2009,13 +2010,13 @@
     </row>
     <row r="74" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D74" s="11">
         <v>68</v>
@@ -2023,13 +2024,13 @@
     </row>
     <row r="75" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D75" s="11">
         <v>69</v>
@@ -2037,13 +2038,13 @@
     </row>
     <row r="76" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D76" s="11">
         <v>65</v>
@@ -2054,10 +2055,10 @@
         <v>5</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D77" s="7">
         <v>46</v>
@@ -2068,34 +2069,34 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D80" s="11">
         <v>74</v>
@@ -2103,13 +2104,13 @@
     </row>
     <row r="81" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D81" s="11">
         <v>75</v>
@@ -2117,13 +2118,13 @@
     </row>
     <row r="82" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D82" s="11">
         <v>76</v>
@@ -2131,13 +2132,13 @@
     </row>
     <row r="83" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D83" s="11">
         <v>73</v>
@@ -2148,10 +2149,10 @@
         <v>6</v>
       </c>
       <c r="B84" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="D84" s="7">
         <v>46</v>
@@ -2162,34 +2163,34 @@
         <v>6.1</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D85" s="8"/>
     </row>
     <row r="86" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D86" s="8"/>
     </row>
     <row r="87" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D87" s="11">
         <v>81</v>
@@ -2197,13 +2198,13 @@
     </row>
     <row r="88" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D88" s="11">
         <v>82</v>
@@ -2214,10 +2215,10 @@
         <v>6.3</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D89" s="7">
         <v>80</v>
@@ -2225,37 +2226,37 @@
     </row>
     <row r="90" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D91" s="8"/>
     </row>
     <row r="92" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D92" s="11">
         <v>84</v>

--- a/desarrollo/SIC/Documentos/PPSIC.xlsx
+++ b/desarrollo/SIC/Documentos/PPSIC.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASSI\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PracticandoGit02\Tecnalogia\desarrollo\SIC\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBD6EE6-5D04-4690-9BE8-273384204FA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
+    <sheet name="Revisado" sheetId="3" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="268">
   <si>
     <t>Duración</t>
   </si>
@@ -858,12 +866,69 @@
       <t>Auditor</t>
     </r>
   </si>
+  <si>
+    <t>Aplicación web para el control de ventas</t>
+  </si>
+  <si>
+    <t>Fin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Hito 01 - Plan de viabilidad del proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Hito 02 -  Acta de constitución</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Hito 03 - Documento de especificación de requisitos (ERS - IEEE_830)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Diseño detallado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Diseño componentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Diseño de las interfaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Diseño de la base de datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Diseño de los servicios o transacciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Diseño de UX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Hito 04 - Documento de arquitectura de software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Hito 05 - Plan de desarrollo completo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Hito 06 - Prueba de integración completa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Hito 07 - Documento del plan de pruebas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Hito 08 - Documentación de ayuda completa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Hito 09 - Despliegue completo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Hito 09 - Revisión de post implementación completa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Hito 10 - Documento del desarrollo de software completa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -940,8 +1005,77 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="5"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -966,8 +1100,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1123,11 +1275,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB1BBCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB1BBCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB1BBCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1260,6 +1447,89 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1541,14 +1811,1291 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF30F305-AFDE-4E74-BF64-DC1BF3E91720}">
+  <dimension ref="A1:F92"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="109.42578125" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" style="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.140625" style="57" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" style="58" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="59" customWidth="1"/>
+    <col min="6" max="16384" width="109.42578125" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+    </row>
+    <row r="3" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>250</v>
+      </c>
+      <c r="E3" s="64" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="50">
+        <v>1</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="51"/>
+    </row>
+    <row r="6" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="50">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="67">
+        <v>43739</v>
+      </c>
+      <c r="D7" s="67">
+        <v>43741</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="67">
+        <v>43741</v>
+      </c>
+      <c r="D8" s="67">
+        <v>43745</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="69" t="s">
+        <v>251</v>
+      </c>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="71"/>
+    </row>
+    <row r="10" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="50">
+        <v>1.2</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="67">
+        <v>43745</v>
+      </c>
+      <c r="D11" s="67">
+        <v>43747</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="67">
+        <v>43747</v>
+      </c>
+      <c r="D12" s="67">
+        <v>43749</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="67">
+        <v>43749</v>
+      </c>
+      <c r="D13" s="67">
+        <v>43751</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="67">
+        <v>43751</v>
+      </c>
+      <c r="D14" s="67">
+        <v>43753</v>
+      </c>
+      <c r="E14" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="69" t="s">
+        <v>252</v>
+      </c>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="71"/>
+    </row>
+    <row r="16" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" s="68" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="54"/>
+    </row>
+    <row r="17" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="50">
+        <v>1.3</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="67">
+        <v>43753</v>
+      </c>
+      <c r="D18" s="67">
+        <v>43759</v>
+      </c>
+      <c r="E18" s="54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="67">
+        <v>43759</v>
+      </c>
+      <c r="D19" s="67">
+        <v>43765</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="67">
+        <v>43765</v>
+      </c>
+      <c r="D20" s="67">
+        <v>43768</v>
+      </c>
+      <c r="E20" s="54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="67">
+        <v>43768</v>
+      </c>
+      <c r="D21" s="67">
+        <v>43771</v>
+      </c>
+      <c r="E21" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="46">
+        <f>D21-C21</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="69" t="s">
+        <v>253</v>
+      </c>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="71"/>
+    </row>
+    <row r="23" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="50">
+        <v>2</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="50">
+        <v>2.1</v>
+      </c>
+      <c r="B24" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="67">
+        <v>43771</v>
+      </c>
+      <c r="D25" s="67">
+        <v>43774</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="67">
+        <v>43774</v>
+      </c>
+      <c r="D26" s="67">
+        <v>43776</v>
+      </c>
+      <c r="E26" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="67">
+        <v>43776</v>
+      </c>
+      <c r="D27" s="67">
+        <v>43778</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="C29" s="67">
+        <v>43778</v>
+      </c>
+      <c r="D29" s="67">
+        <v>43780</v>
+      </c>
+      <c r="E29" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="C30" s="67">
+        <v>43782</v>
+      </c>
+      <c r="D30" s="67">
+        <v>43784</v>
+      </c>
+      <c r="E30" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="C31" s="67">
+        <v>43782</v>
+      </c>
+      <c r="D31" s="67">
+        <v>43784</v>
+      </c>
+      <c r="E31" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="C32" s="67">
+        <v>43782</v>
+      </c>
+      <c r="D32" s="67">
+        <v>43784</v>
+      </c>
+      <c r="E32" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="C33" s="67">
+        <v>43784</v>
+      </c>
+      <c r="D33" s="67">
+        <v>43786</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="69" t="s">
+        <v>260</v>
+      </c>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="71"/>
+    </row>
+    <row r="35" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="50">
+        <v>3</v>
+      </c>
+      <c r="B35" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="50">
+        <v>3.1</v>
+      </c>
+      <c r="B36" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="50">
+        <v>3.2</v>
+      </c>
+      <c r="B43" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" s="69" t="s">
+        <v>261</v>
+      </c>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="71"/>
+    </row>
+    <row r="51" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="50">
+        <v>4</v>
+      </c>
+      <c r="B51" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="61"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="50">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B52" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="66"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="B53" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="B55" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="54"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="54"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="B57" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="54"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="50">
+        <v>4.2</v>
+      </c>
+      <c r="B58" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="66"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="54"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="B60" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="54"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="B61" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="54"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="B62" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="54"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="B63" s="69" t="s">
+        <v>262</v>
+      </c>
+      <c r="C63" s="70"/>
+      <c r="D63" s="70"/>
+      <c r="E63" s="71"/>
+    </row>
+    <row r="64" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="50">
+        <v>4.3</v>
+      </c>
+      <c r="B64" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="C64" s="66"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" s="54"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="B66" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="54"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67" s="54"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="B68" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" s="54"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="B69" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" s="54"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="50">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B70" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" s="66"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="B71" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" s="54"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" s="54"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="B73" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" s="54"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="B74" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74" s="54"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="B75" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="54"/>
+      <c r="D75" s="54"/>
+      <c r="E75" s="54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" s="69" t="s">
+        <v>263</v>
+      </c>
+      <c r="C76" s="70"/>
+      <c r="D76" s="70"/>
+      <c r="E76" s="71"/>
+    </row>
+    <row r="77" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="50">
+        <v>5</v>
+      </c>
+      <c r="B77" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" s="61"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="61" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="50">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B78" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" s="66"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="66" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" s="54"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="B80" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="C80" s="54"/>
+      <c r="D80" s="54"/>
+      <c r="E80" s="54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B81" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81" s="54"/>
+      <c r="D81" s="54"/>
+      <c r="E81" s="54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="B82" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" s="54"/>
+      <c r="D82" s="54"/>
+      <c r="E82" s="54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83" s="69" t="s">
+        <v>264</v>
+      </c>
+      <c r="C83" s="70"/>
+      <c r="D83" s="70"/>
+      <c r="E83" s="71"/>
+    </row>
+    <row r="84" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="50">
+        <v>6</v>
+      </c>
+      <c r="B84" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84" s="61"/>
+      <c r="D84" s="61"/>
+      <c r="E84" s="61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="50">
+        <v>6.1</v>
+      </c>
+      <c r="B85" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" s="66"/>
+      <c r="D85" s="66"/>
+      <c r="E85" s="66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="B86" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86" s="54"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="B87" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" s="54"/>
+      <c r="D87" s="54"/>
+      <c r="E87" s="54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="B88" s="53" t="s">
+        <v>265</v>
+      </c>
+      <c r="C88" s="54"/>
+      <c r="D88" s="54"/>
+      <c r="E88" s="54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="50">
+        <v>6.3</v>
+      </c>
+      <c r="B89" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89" s="66"/>
+      <c r="D89" s="66"/>
+      <c r="E89" s="66" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="B90" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" s="54"/>
+      <c r="D90" s="54"/>
+      <c r="E90" s="54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="B91" s="69" t="s">
+        <v>266</v>
+      </c>
+      <c r="C91" s="70"/>
+      <c r="D91" s="70"/>
+      <c r="E91" s="71"/>
+    </row>
+    <row r="92" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="B92" s="69" t="s">
+        <v>267</v>
+      </c>
+      <c r="C92" s="70"/>
+      <c r="D92" s="70"/>
+      <c r="E92" s="71"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B50:E50"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -2194,15 +3741,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="109.42578125" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="109.42578125" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.85546875" style="13" customWidth="1"/>

--- a/desarrollo/SIC/Documentos/PPSIC.xlsx
+++ b/desarrollo/SIC/Documentos/PPSIC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PracticandoGit02\Tecnalogia\desarrollo\SIC\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBD6EE6-5D04-4690-9BE8-273384204FA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D78F053-5710-458E-8120-8B587ECB3D8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="270">
   <si>
     <t>Duración</t>
   </si>
@@ -873,15 +873,6 @@
     <t>Fin</t>
   </si>
   <si>
-    <t xml:space="preserve">       Hito 01 - Plan de viabilidad del proyecto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Hito 02 -  Acta de constitución</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Hito 03 - Documento de especificación de requisitos (ERS - IEEE_830)</t>
-  </si>
-  <si>
     <t xml:space="preserve">      Diseño detallado</t>
   </si>
   <si>
@@ -900,35 +891,50 @@
     <t xml:space="preserve">        Diseño de UX</t>
   </si>
   <si>
-    <t xml:space="preserve">      Hito 04 - Documento de arquitectura de software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Hito 05 - Plan de desarrollo completo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Hito 06 - Prueba de integración completa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Hito 07 - Documento del plan de pruebas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Hito 08 - Documentación de ayuda completa</t>
-  </si>
-  <si>
     <t xml:space="preserve">         Hito 09 - Despliegue completo</t>
   </si>
   <si>
-    <t xml:space="preserve">      Hito 09 - Revisión de post implementación completa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Hito 10 - Documento del desarrollo de software completa</t>
+    <t xml:space="preserve">       Hito 01 - Viabilidad del proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Elaboración del plan de viabilidad del proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Elaboración del acta de constitución del proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Hito 02 -  Constitución del proyecto</t>
+  </si>
+  <si>
+    <t>1 días</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Hito 03 - Requisitos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Elaboración de historias de usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Hito 04 - Arquitectura de software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Hito 05 - Desarrollo completo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Hito 06 - Documento de pruebas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Hito 07 - Manuales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Hito 08 - Post implementación completa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1066,14 +1072,6 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1114,7 +1112,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.499984740745262"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1314,7 +1312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1407,48 +1405,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1474,9 +1430,6 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1511,8 +1464,11 @@
     <xf numFmtId="14" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1523,14 +1479,53 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1812,1275 +1807,1083 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF30F305-AFDE-4E74-BF64-DC1BF3E91720}">
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:E15"/>
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="109.42578125" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.140625" style="57" customWidth="1"/>
-    <col min="3" max="4" width="15.7109375" style="58" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="59" customWidth="1"/>
-    <col min="6" max="16384" width="109.42578125" style="46"/>
+    <col min="1" max="1" width="3.140625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="67.140625" style="42" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" style="43" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="44" customWidth="1"/>
+    <col min="6" max="16384" width="109.42578125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
     </row>
     <row r="2" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
     </row>
     <row r="3" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" s="63" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="49" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49" t="s">
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="50">
-        <v>1</v>
-      </c>
-      <c r="B5" s="60" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61" t="s">
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="51"/>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B6" s="65" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66" t="s">
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="53" t="s">
+      <c r="A7" s="38"/>
+      <c r="B7" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="67">
+      <c r="C7" s="52">
         <v>43739</v>
       </c>
-      <c r="D7" s="67">
+      <c r="D7" s="52">
         <v>43741</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="40" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="53" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="67">
+      <c r="C8" s="52">
         <v>43741</v>
       </c>
-      <c r="D8" s="67">
+      <c r="D8" s="52">
+        <v>43742</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
+      <c r="B9" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" s="52">
+        <v>43743</v>
+      </c>
+      <c r="D9" s="52">
         <v>43745</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E9" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
+      <c r="B10" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
+    </row>
+    <row r="11" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="36"/>
+      <c r="B11" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38"/>
+      <c r="B12" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="52">
+        <v>43745</v>
+      </c>
+      <c r="D12" s="52">
+        <v>43747</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="52">
+        <v>43747</v>
+      </c>
+      <c r="D13" s="52">
+        <v>43749</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
+      <c r="B14" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="52">
+        <v>43749</v>
+      </c>
+      <c r="D14" s="52">
+        <v>43750</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
+      <c r="B15" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="52">
+        <v>43750</v>
+      </c>
+      <c r="D15" s="52">
+        <v>43751</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="C16" s="52">
+        <v>43751</v>
+      </c>
+      <c r="D16" s="52">
+        <v>43753</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="55" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
+    </row>
+    <row r="18" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="36"/>
+      <c r="B18" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="38"/>
+      <c r="B19" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="52">
+        <v>43753</v>
+      </c>
+      <c r="D19" s="52">
+        <v>43759</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
+      <c r="B20" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="52">
+        <v>43759</v>
+      </c>
+      <c r="D20" s="52">
+        <v>43765</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38"/>
+      <c r="B21" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="C21" s="52">
+        <v>43765</v>
+      </c>
+      <c r="D21" s="52">
+        <v>43768</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="38"/>
+      <c r="B22" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="52">
+        <v>43768</v>
+      </c>
+      <c r="D22" s="52">
+        <v>43771</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="32">
+        <f>D22-C22</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
+      <c r="B23" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57"/>
+    </row>
+    <row r="24" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="36"/>
+      <c r="B24" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="73"/>
+      <c r="B25" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
+      <c r="B26" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="52">
+        <v>43771</v>
+      </c>
+      <c r="D26" s="52">
+        <v>43774</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="38"/>
+      <c r="B27" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="52">
+        <v>43774</v>
+      </c>
+      <c r="D27" s="52">
+        <v>43778</v>
+      </c>
+      <c r="E27" s="40" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="69" t="s">
+    <row r="28" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="73"/>
+      <c r="B28" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="71"/>
-    </row>
-    <row r="10" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50">
-        <v>1.2</v>
-      </c>
-      <c r="B10" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66" t="s">
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="38"/>
+      <c r="B29" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="C29" s="52">
+        <v>43774</v>
+      </c>
+      <c r="D29" s="52">
+        <v>43778</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="38"/>
+      <c r="B30" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="C30" s="52">
+        <v>43782</v>
+      </c>
+      <c r="D30" s="52">
+        <v>43784</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="38"/>
+      <c r="B31" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="C31" s="52">
+        <v>43782</v>
+      </c>
+      <c r="D31" s="52">
+        <v>43784</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="38"/>
+      <c r="B32" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="C32" s="52">
+        <v>43782</v>
+      </c>
+      <c r="D32" s="52">
+        <v>43784</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="38"/>
+      <c r="B33" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="C33" s="52">
+        <v>43784</v>
+      </c>
+      <c r="D33" s="52">
+        <v>43786</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
+      <c r="B34" s="55" t="s">
+        <v>265</v>
+      </c>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="57"/>
+    </row>
+    <row r="35" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="36"/>
+      <c r="B35" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="36"/>
+      <c r="B36" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="38"/>
+      <c r="B37" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="38"/>
+      <c r="B38" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="38"/>
+      <c r="B39" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="38"/>
+      <c r="B40" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="38"/>
+      <c r="B41" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="38"/>
+      <c r="B42" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="36"/>
+      <c r="B43" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="38"/>
+      <c r="B44" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="38"/>
+      <c r="B45" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="38"/>
+      <c r="B46" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="38"/>
+      <c r="B47" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="38"/>
+      <c r="B48" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="38"/>
+      <c r="B49" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="38"/>
+      <c r="B50" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="57"/>
+    </row>
+    <row r="51" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="36"/>
+      <c r="B51" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="36"/>
+      <c r="B52" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="67">
-        <v>43745</v>
-      </c>
-      <c r="D11" s="67">
-        <v>43747</v>
-      </c>
-      <c r="E11" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="67">
-        <v>43747</v>
-      </c>
-      <c r="D12" s="67">
-        <v>43749</v>
-      </c>
-      <c r="E12" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="67">
-        <v>43749</v>
-      </c>
-      <c r="D13" s="67">
-        <v>43751</v>
-      </c>
-      <c r="E13" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="B14" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="67">
-        <v>43751</v>
-      </c>
-      <c r="D14" s="67">
-        <v>43753</v>
-      </c>
-      <c r="E14" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="69" t="s">
-        <v>252</v>
-      </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71"/>
-    </row>
-    <row r="16" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="B16" s="68" t="s">
-        <v>172</v>
-      </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="54"/>
-    </row>
-    <row r="17" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="50">
-        <v>1.3</v>
-      </c>
-      <c r="B17" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="67">
-        <v>43753</v>
-      </c>
-      <c r="D18" s="67">
-        <v>43759</v>
-      </c>
-      <c r="E18" s="54" t="s">
+    <row r="53" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="38"/>
+      <c r="B53" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="38"/>
+      <c r="B54" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="38"/>
+      <c r="B55" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="38"/>
+      <c r="B56" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="38"/>
+      <c r="B57" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="36"/>
+      <c r="B58" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="38"/>
+      <c r="B59" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="38"/>
+      <c r="B60" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="38"/>
+      <c r="B61" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="38"/>
+      <c r="B62" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="36"/>
+      <c r="B63" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="C63" s="51"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="38"/>
+      <c r="B64" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" s="40"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="38"/>
+      <c r="B65" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="38"/>
+      <c r="B66" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="38"/>
+      <c r="B67" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" s="40"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="38"/>
+      <c r="B68" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="36"/>
+      <c r="B69" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="51"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="38"/>
+      <c r="B70" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="38"/>
+      <c r="B71" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="38"/>
+      <c r="B72" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="38"/>
+      <c r="B73" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" s="40"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="38"/>
+      <c r="B74" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" s="40"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="38"/>
+      <c r="B75" s="55" t="s">
+        <v>267</v>
+      </c>
+      <c r="C75" s="56"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="57"/>
+    </row>
+    <row r="76" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="36"/>
+      <c r="B76" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C76" s="46"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="36"/>
+      <c r="B77" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" s="51"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="38"/>
+      <c r="B78" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C78" s="40"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="38"/>
+      <c r="B79" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="C79" s="40"/>
+      <c r="D79" s="40"/>
+      <c r="E79" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="38"/>
+      <c r="B80" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" s="40"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="38"/>
+      <c r="B81" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" s="40"/>
+      <c r="D81" s="40"/>
+      <c r="E81" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="38"/>
+      <c r="B82" s="55" t="s">
+        <v>268</v>
+      </c>
+      <c r="C82" s="56"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="57"/>
+    </row>
+    <row r="83" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="36"/>
+      <c r="B83" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" s="46"/>
+      <c r="D83" s="46"/>
+      <c r="E83" s="46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="36"/>
+      <c r="B84" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84" s="51"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="51" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="67">
-        <v>43759</v>
-      </c>
-      <c r="D19" s="67">
-        <v>43765</v>
-      </c>
-      <c r="E19" s="54" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="67">
-        <v>43765</v>
-      </c>
-      <c r="D20" s="67">
-        <v>43768</v>
-      </c>
-      <c r="E20" s="54" t="s">
+    <row r="85" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="38"/>
+      <c r="B85" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C85" s="40"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="40" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="67">
-        <v>43768</v>
-      </c>
-      <c r="D21" s="67">
-        <v>43771</v>
-      </c>
-      <c r="E21" s="54" t="s">
+    <row r="86" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="38"/>
+      <c r="B86" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C86" s="40"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="46">
-        <f>D21-C21</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="B22" s="69" t="s">
-        <v>253</v>
-      </c>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="71"/>
-    </row>
-    <row r="23" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="50">
-        <v>2</v>
-      </c>
-      <c r="B23" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="50">
-        <v>2.1</v>
-      </c>
-      <c r="B24" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="B25" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="67">
-        <v>43771</v>
-      </c>
-      <c r="D25" s="67">
-        <v>43774</v>
-      </c>
-      <c r="E25" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="67">
-        <v>43774</v>
-      </c>
-      <c r="D26" s="67">
-        <v>43776</v>
-      </c>
-      <c r="E26" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="B27" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="67">
-        <v>43776</v>
-      </c>
-      <c r="D27" s="67">
-        <v>43778</v>
-      </c>
-      <c r="E27" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28" s="65" t="s">
-        <v>254</v>
-      </c>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="B29" s="53" t="s">
-        <v>255</v>
-      </c>
-      <c r="C29" s="67">
-        <v>43778</v>
-      </c>
-      <c r="D29" s="67">
-        <v>43780</v>
-      </c>
-      <c r="E29" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="B30" s="53" t="s">
-        <v>256</v>
-      </c>
-      <c r="C30" s="67">
-        <v>43782</v>
-      </c>
-      <c r="D30" s="67">
-        <v>43784</v>
-      </c>
-      <c r="E30" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="B31" s="53" t="s">
+    </row>
+    <row r="87" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="38"/>
+      <c r="B87" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="C31" s="67">
-        <v>43782</v>
-      </c>
-      <c r="D31" s="67">
-        <v>43784</v>
-      </c>
-      <c r="E31" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="B32" s="53" t="s">
-        <v>258</v>
-      </c>
-      <c r="C32" s="67">
-        <v>43782</v>
-      </c>
-      <c r="D32" s="67">
-        <v>43784</v>
-      </c>
-      <c r="E32" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="B33" s="53" t="s">
-        <v>259</v>
-      </c>
-      <c r="C33" s="67">
-        <v>43784</v>
-      </c>
-      <c r="D33" s="67">
-        <v>43786</v>
-      </c>
-      <c r="E33" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="B34" s="69" t="s">
-        <v>260</v>
-      </c>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="71"/>
-    </row>
-    <row r="35" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="50">
-        <v>3</v>
-      </c>
-      <c r="B35" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="50">
-        <v>3.1</v>
-      </c>
-      <c r="B36" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="B37" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="B38" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="B39" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="B40" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="B41" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="B42" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="50">
-        <v>3.2</v>
-      </c>
-      <c r="B43" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="B44" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="B45" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="B46" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="B47" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="B48" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="B49" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="B50" s="69" t="s">
-        <v>261</v>
-      </c>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="71"/>
-    </row>
-    <row r="51" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="50">
-        <v>4</v>
-      </c>
-      <c r="B51" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" s="61"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="50">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B52" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="C52" s="66"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="66" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="B53" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="B54" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" s="54"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="B55" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" s="54"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="B56" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="54"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="B57" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="54"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="54" t="s">
+      <c r="C87" s="40"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="40" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="50">
-        <v>4.2</v>
-      </c>
-      <c r="B58" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="C58" s="66"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="66" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="B59" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="B60" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="C60" s="54"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="B61" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="C61" s="54"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="B62" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="C62" s="54"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="B63" s="69" t="s">
-        <v>262</v>
-      </c>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="71"/>
-    </row>
-    <row r="64" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="50">
-        <v>4.3</v>
-      </c>
-      <c r="B64" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="C64" s="66"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="66" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B65" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="C65" s="54"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="B66" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="C66" s="54"/>
-      <c r="D66" s="54"/>
-      <c r="E66" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="B67" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="C67" s="54"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="B68" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="C68" s="54"/>
-      <c r="D68" s="54"/>
-      <c r="E68" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="B69" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="C69" s="54"/>
-      <c r="D69" s="54"/>
-      <c r="E69" s="54" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="50">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B70" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="C70" s="66"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="66" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="B71" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="C71" s="54"/>
-      <c r="D71" s="54"/>
-      <c r="E71" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="B72" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="C72" s="54"/>
-      <c r="D72" s="54"/>
-      <c r="E72" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="B73" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="C73" s="54"/>
-      <c r="D73" s="54"/>
-      <c r="E73" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="B74" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="C74" s="54"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="B75" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="C75" s="54"/>
-      <c r="D75" s="54"/>
-      <c r="E75" s="54" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="B76" s="69" t="s">
-        <v>263</v>
-      </c>
-      <c r="C76" s="70"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="71"/>
-    </row>
-    <row r="77" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="50">
-        <v>5</v>
-      </c>
-      <c r="B77" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="C77" s="61"/>
-      <c r="D77" s="61"/>
-      <c r="E77" s="61" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="50">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B78" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="C78" s="66"/>
-      <c r="D78" s="66"/>
-      <c r="E78" s="66" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="B79" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="C79" s="54"/>
-      <c r="D79" s="54"/>
-      <c r="E79" s="54" t="s">
+    <row r="88" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="36"/>
+      <c r="B88" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C88" s="51"/>
+      <c r="D88" s="51"/>
+      <c r="E88" s="51" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="B80" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="C80" s="54"/>
-      <c r="D80" s="54"/>
-      <c r="E80" s="54" t="s">
+    <row r="89" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="38"/>
+      <c r="B89" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C89" s="40"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="40" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="B81" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="C81" s="54"/>
-      <c r="D81" s="54"/>
-      <c r="E81" s="54" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="B82" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="C82" s="54"/>
-      <c r="D82" s="54"/>
-      <c r="E82" s="54" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="B83" s="69" t="s">
-        <v>264</v>
-      </c>
-      <c r="C83" s="70"/>
-      <c r="D83" s="70"/>
-      <c r="E83" s="71"/>
-    </row>
-    <row r="84" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="50">
-        <v>6</v>
-      </c>
-      <c r="B84" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="C84" s="61"/>
-      <c r="D84" s="61"/>
-      <c r="E84" s="61" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="50">
-        <v>6.1</v>
-      </c>
-      <c r="B85" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="C85" s="66"/>
-      <c r="D85" s="66"/>
-      <c r="E85" s="66" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="B86" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="C86" s="54"/>
-      <c r="D86" s="54"/>
-      <c r="E86" s="54" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="B87" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="C87" s="54"/>
-      <c r="D87" s="54"/>
-      <c r="E87" s="54" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="52" t="s">
-        <v>161</v>
-      </c>
-      <c r="B88" s="53" t="s">
-        <v>265</v>
-      </c>
-      <c r="C88" s="54"/>
-      <c r="D88" s="54"/>
-      <c r="E88" s="54" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="50">
-        <v>6.3</v>
-      </c>
-      <c r="B89" s="65" t="s">
-        <v>93</v>
-      </c>
-      <c r="C89" s="66"/>
-      <c r="D89" s="66"/>
-      <c r="E89" s="66" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="90" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="B90" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="C90" s="54"/>
-      <c r="D90" s="54"/>
-      <c r="E90" s="54" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="B91" s="69" t="s">
-        <v>266</v>
-      </c>
-      <c r="C91" s="70"/>
-      <c r="D91" s="70"/>
-      <c r="E91" s="71"/>
-    </row>
-    <row r="92" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="B92" s="69" t="s">
-        <v>267</v>
-      </c>
-      <c r="C92" s="70"/>
-      <c r="D92" s="70"/>
-      <c r="E92" s="71"/>
+      <c r="A90" s="38"/>
+      <c r="B90" s="55" t="s">
+        <v>269</v>
+      </c>
+      <c r="C90" s="56"/>
+      <c r="D90" s="56"/>
+      <c r="E90" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="B92:E92"/>
+  <mergeCells count="9">
+    <mergeCell ref="B50:E50"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B23:E23"/>
     <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B90:E90"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3103,11 +2906,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3206,10 +3009,10 @@
       <c r="A13" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="64" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3217,8 +3020,8 @@
       <c r="A14" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
     </row>
     <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
@@ -3341,17 +3144,17 @@
       <c r="A26" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="41"/>
+      <c r="C26" s="68"/>
     </row>
     <row r="27" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="42"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="69"/>
     </row>
     <row r="28" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
@@ -3684,10 +3487,10 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="59" t="s">
         <v>207</v>
       </c>
-      <c r="B60" s="32" t="s">
+      <c r="B60" s="59" t="s">
         <v>176</v>
       </c>
       <c r="C60" s="28" t="s">
@@ -3695,22 +3498,22 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="33"/>
-      <c r="B61" s="33"/>
+      <c r="A61" s="60"/>
+      <c r="B61" s="60"/>
       <c r="C61" s="28" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="33"/>
-      <c r="B62" s="33"/>
+      <c r="A62" s="60"/>
+      <c r="B62" s="60"/>
       <c r="C62" s="28" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="34"/>
-      <c r="B63" s="34"/>
+      <c r="A63" s="61"/>
+      <c r="B63" s="61"/>
       <c r="C63" s="29" t="s">
         <v>191</v>
       </c>
@@ -3758,12 +3561,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="70" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="72"/>
     </row>
     <row r="2" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>

--- a/desarrollo/SIC/Documentos/PPSIC.xlsx
+++ b/desarrollo/SIC/Documentos/PPSIC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PracticandoGit02\Tecnalogia\desarrollo\SIC\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D78F053-5710-458E-8120-8B587ECB3D8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF3BBD2-7D14-4BE2-8697-B85D2A90CE86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -921,13 +921,13 @@
     <t xml:space="preserve">       Hito 05 - Desarrollo completo</t>
   </si>
   <si>
-    <t xml:space="preserve">       Hito 06 - Documento de pruebas</t>
-  </si>
-  <si>
     <t xml:space="preserve">      Hito 07 - Manuales</t>
   </si>
   <si>
     <t xml:space="preserve">      Hito 08 - Post implementación completa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Hito 06 - Pruebas</t>
   </si>
 </sst>
 </file>
@@ -1470,6 +1470,9 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1523,9 +1526,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1809,8 +1809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF30F305-AFDE-4E74-BF64-DC1BF3E91720}">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="109.42578125" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1823,13 +1823,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
     </row>
     <row r="2" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53"/>
@@ -1932,12 +1932,12 @@
     </row>
     <row r="10" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="56" t="s">
         <v>258</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
     </row>
     <row r="11" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36"/>
@@ -2027,12 +2027,12 @@
     </row>
     <row r="17" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="56" t="s">
         <v>261</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
     </row>
     <row r="18" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
@@ -2111,12 +2111,12 @@
     </row>
     <row r="23" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="38"/>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="56" t="s">
         <v>263</v>
       </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="58"/>
     </row>
     <row r="24" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36"/>
@@ -2130,7 +2130,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="73"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="50" t="s">
         <v>30</v>
       </c>
@@ -2171,7 +2171,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="73"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="50" t="s">
         <v>251</v>
       </c>
@@ -2258,12 +2258,12 @@
     </row>
     <row r="34" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="38"/>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="56" t="s">
         <v>265</v>
       </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="58"/>
     </row>
     <row r="35" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="36"/>
@@ -2432,12 +2432,12 @@
     </row>
     <row r="50" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="38"/>
-      <c r="B50" s="55" t="s">
+      <c r="B50" s="56" t="s">
         <v>266</v>
       </c>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="57"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="58"/>
     </row>
     <row r="51" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="36"/>
@@ -2705,12 +2705,12 @@
     </row>
     <row r="75" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="38"/>
-      <c r="B75" s="55" t="s">
-        <v>267</v>
-      </c>
-      <c r="C75" s="56"/>
-      <c r="D75" s="56"/>
-      <c r="E75" s="57"/>
+      <c r="B75" s="56" t="s">
+        <v>269</v>
+      </c>
+      <c r="C75" s="57"/>
+      <c r="D75" s="57"/>
+      <c r="E75" s="58"/>
     </row>
     <row r="76" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="36"/>
@@ -2780,12 +2780,12 @@
     </row>
     <row r="82" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="38"/>
-      <c r="B82" s="55" t="s">
-        <v>268</v>
-      </c>
-      <c r="C82" s="56"/>
-      <c r="D82" s="56"/>
-      <c r="E82" s="57"/>
+      <c r="B82" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="C82" s="57"/>
+      <c r="D82" s="57"/>
+      <c r="E82" s="58"/>
     </row>
     <row r="83" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="36"/>
@@ -2866,24 +2866,24 @@
     </row>
     <row r="90" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="38"/>
-      <c r="B90" s="55" t="s">
-        <v>269</v>
-      </c>
-      <c r="C90" s="56"/>
-      <c r="D90" s="56"/>
-      <c r="E90" s="57"/>
+      <c r="B90" s="56" t="s">
+        <v>268</v>
+      </c>
+      <c r="C90" s="57"/>
+      <c r="D90" s="57"/>
+      <c r="E90" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B90:E90"/>
     <mergeCell ref="B50:E50"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B90:E90"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2906,11 +2906,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
       <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3009,10 +3009,10 @@
       <c r="A13" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="65" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3020,8 +3020,8 @@
       <c r="A14" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
     </row>
     <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
@@ -3144,17 +3144,17 @@
       <c r="A26" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="68"/>
+      <c r="C26" s="69"/>
     </row>
     <row r="27" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="B27" s="67"/>
-      <c r="C27" s="69"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="70"/>
     </row>
     <row r="28" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
@@ -3487,10 +3487,10 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="59" t="s">
+      <c r="A60" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="B60" s="59" t="s">
+      <c r="B60" s="60" t="s">
         <v>176</v>
       </c>
       <c r="C60" s="28" t="s">
@@ -3498,22 +3498,22 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="60"/>
-      <c r="B61" s="60"/>
+      <c r="A61" s="61"/>
+      <c r="B61" s="61"/>
       <c r="C61" s="28" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="60"/>
-      <c r="B62" s="60"/>
+      <c r="A62" s="61"/>
+      <c r="B62" s="61"/>
       <c r="C62" s="28" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="61"/>
-      <c r="B63" s="61"/>
+      <c r="A63" s="62"/>
+      <c r="B63" s="62"/>
       <c r="C63" s="29" t="s">
         <v>191</v>
       </c>
@@ -3561,12 +3561,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="72"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="73"/>
     </row>
     <row r="2" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>

--- a/desarrollo/SIC/Documentos/PPSIC.xlsx
+++ b/desarrollo/SIC/Documentos/PPSIC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PracticandoGit02\Tecnalogia\desarrollo\SIC\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF3BBD2-7D14-4BE2-8697-B85D2A90CE86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E54F22-CF6E-4DCA-8A0C-F27104EBDAF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1809,8 +1809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF30F305-AFDE-4E74-BF64-DC1BF3E91720}">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="109.42578125" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/desarrollo/SIC/Documentos/PPSIC.xlsx
+++ b/desarrollo/SIC/Documentos/PPSIC.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
+    <sheet name="Revisado" sheetId="3" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="270">
   <si>
     <t>Duración</t>
   </si>
@@ -858,12 +859,75 @@
       <t>Auditor</t>
     </r>
   </si>
+  <si>
+    <t>Aplicación web para el control de ventas</t>
+  </si>
+  <si>
+    <t>Fin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Diseño detallado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Diseño componentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Diseño de las interfaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Diseño de la base de datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Diseño de los servicios o transacciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Diseño de UX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Hito 09 - Despliegue completo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Hito 01 - Viabilidad del proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Elaboración del plan de viabilidad del proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Elaboración del acta de constitución del proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Hito 02 -  Constitución del proyecto</t>
+  </si>
+  <si>
+    <t>1 días</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Hito 03 - Requisitos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Elaboración de historias de usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Hito 04 - Arquitectura de software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Hito 05 - Desarrollo completo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Hito 07 - Manuales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Hito 08 - Post implementación completa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Hito 06 - Pruebas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -940,8 +1004,69 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="5"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -966,8 +1091,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1123,11 +1266,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB1BBCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB1BBCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB1BBCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1220,6 +1398,86 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1260,6 +1518,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1542,13 +1812,1029 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F75"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="109.42578125" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="67.140625" style="42" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" style="43" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="44" customWidth="1"/>
+    <col min="6" max="16384" width="109.42578125" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+    </row>
+    <row r="3" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>250</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
+      <c r="B5" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="37"/>
+    </row>
+    <row r="6" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
+      <c r="B6" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
+      <c r="B7" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="52">
+        <v>43739</v>
+      </c>
+      <c r="D7" s="52">
+        <v>43741</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="52">
+        <v>43741</v>
+      </c>
+      <c r="D8" s="52">
+        <v>43742</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
+      <c r="B9" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" s="52">
+        <v>43743</v>
+      </c>
+      <c r="D9" s="52">
+        <v>43745</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
+      <c r="B10" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
+    </row>
+    <row r="11" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="36"/>
+      <c r="B11" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38"/>
+      <c r="B12" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="52">
+        <v>43745</v>
+      </c>
+      <c r="D12" s="52">
+        <v>43747</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="52">
+        <v>43747</v>
+      </c>
+      <c r="D13" s="52">
+        <v>43749</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
+      <c r="B14" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="52">
+        <v>43749</v>
+      </c>
+      <c r="D14" s="52">
+        <v>43750</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
+      <c r="B15" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="52">
+        <v>43750</v>
+      </c>
+      <c r="D15" s="52">
+        <v>43751</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="C16" s="52">
+        <v>43751</v>
+      </c>
+      <c r="D16" s="52">
+        <v>43753</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="56" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
+    </row>
+    <row r="18" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="36"/>
+      <c r="B18" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="38"/>
+      <c r="B19" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="52">
+        <v>43753</v>
+      </c>
+      <c r="D19" s="52">
+        <v>43759</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
+      <c r="B20" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="52">
+        <v>43759</v>
+      </c>
+      <c r="D20" s="52">
+        <v>43765</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38"/>
+      <c r="B21" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="C21" s="52">
+        <v>43765</v>
+      </c>
+      <c r="D21" s="52">
+        <v>43768</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="38"/>
+      <c r="B22" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="52">
+        <v>43768</v>
+      </c>
+      <c r="D22" s="52">
+        <v>43771</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="32">
+        <f>D22-C22</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
+      <c r="B23" s="56" t="s">
+        <v>263</v>
+      </c>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="58"/>
+    </row>
+    <row r="24" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="36"/>
+      <c r="B24" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="55"/>
+      <c r="B25" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
+      <c r="B26" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="52">
+        <v>43771</v>
+      </c>
+      <c r="D26" s="52">
+        <v>43774</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="38"/>
+      <c r="B27" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="52">
+        <v>43774</v>
+      </c>
+      <c r="D27" s="52">
+        <v>43778</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="55"/>
+      <c r="B28" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="38"/>
+      <c r="B29" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="C29" s="52">
+        <v>43774</v>
+      </c>
+      <c r="D29" s="52">
+        <v>43778</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="38"/>
+      <c r="B30" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="C30" s="52">
+        <v>43782</v>
+      </c>
+      <c r="D30" s="52">
+        <v>43784</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="38"/>
+      <c r="B31" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="C31" s="52">
+        <v>43782</v>
+      </c>
+      <c r="D31" s="52">
+        <v>43784</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="38"/>
+      <c r="B32" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="C32" s="52">
+        <v>43782</v>
+      </c>
+      <c r="D32" s="52">
+        <v>43784</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="38"/>
+      <c r="B33" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="C33" s="52">
+        <v>43784</v>
+      </c>
+      <c r="D33" s="52">
+        <v>43786</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
+      <c r="B34" s="56" t="s">
+        <v>265</v>
+      </c>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="58"/>
+    </row>
+    <row r="35" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="36"/>
+      <c r="B35" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="36"/>
+      <c r="B36" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="38"/>
+      <c r="B37" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="52">
+        <v>43786</v>
+      </c>
+      <c r="D37" s="52">
+        <v>43788</v>
+      </c>
+      <c r="E37" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="38"/>
+      <c r="B38" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="52">
+        <v>43788</v>
+      </c>
+      <c r="D38" s="52">
+        <v>43790</v>
+      </c>
+      <c r="E38" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="38"/>
+      <c r="B39" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="52">
+        <v>43788</v>
+      </c>
+      <c r="D39" s="52">
+        <v>43790</v>
+      </c>
+      <c r="E39" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="38"/>
+      <c r="B40" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="52">
+        <v>43788</v>
+      </c>
+      <c r="D40" s="52">
+        <v>43790</v>
+      </c>
+      <c r="E40" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="38"/>
+      <c r="B41" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="52">
+        <v>43788</v>
+      </c>
+      <c r="D41" s="52">
+        <v>43790</v>
+      </c>
+      <c r="E41" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="38"/>
+      <c r="B42" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="52">
+        <v>43790</v>
+      </c>
+      <c r="D42" s="52">
+        <v>43792</v>
+      </c>
+      <c r="E42" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="36"/>
+      <c r="B43" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="38"/>
+      <c r="B44" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="52">
+        <v>43790</v>
+      </c>
+      <c r="D44" s="52">
+        <v>43792</v>
+      </c>
+      <c r="E44" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="38"/>
+      <c r="B45" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="52">
+        <v>43790</v>
+      </c>
+      <c r="D45" s="52">
+        <v>43792</v>
+      </c>
+      <c r="E45" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="38"/>
+      <c r="B46" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="52">
+        <v>43790</v>
+      </c>
+      <c r="D46" s="52">
+        <v>43792</v>
+      </c>
+      <c r="E46" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="38"/>
+      <c r="B47" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="58"/>
+    </row>
+    <row r="48" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="36"/>
+      <c r="B48" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="36"/>
+      <c r="B49" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="38"/>
+      <c r="B50" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="52">
+        <v>43792</v>
+      </c>
+      <c r="D50" s="52">
+        <v>43794</v>
+      </c>
+      <c r="E50" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="38"/>
+      <c r="B51" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="52">
+        <v>43792</v>
+      </c>
+      <c r="D51" s="52">
+        <v>43794</v>
+      </c>
+      <c r="E51" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="38"/>
+      <c r="B52" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="52">
+        <v>43792</v>
+      </c>
+      <c r="D52" s="52">
+        <v>43794</v>
+      </c>
+      <c r="E52" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="38"/>
+      <c r="B53" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="52">
+        <v>43792</v>
+      </c>
+      <c r="D53" s="52">
+        <v>43794</v>
+      </c>
+      <c r="E53" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="74"/>
+      <c r="B54" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="76"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="36"/>
+      <c r="B55" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="38"/>
+      <c r="B56" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="52">
+        <v>43792</v>
+      </c>
+      <c r="D56" s="52">
+        <v>43794</v>
+      </c>
+      <c r="E56" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="38"/>
+      <c r="B57" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="52">
+        <v>43792</v>
+      </c>
+      <c r="D57" s="52">
+        <v>43794</v>
+      </c>
+      <c r="E57" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="38"/>
+      <c r="B58" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="52">
+        <v>43792</v>
+      </c>
+      <c r="D58" s="52">
+        <v>43794</v>
+      </c>
+      <c r="E58" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="38"/>
+      <c r="B59" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="52">
+        <v>43792</v>
+      </c>
+      <c r="D59" s="52">
+        <v>43794</v>
+      </c>
+      <c r="E59" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="38"/>
+      <c r="B60" s="56" t="s">
+        <v>269</v>
+      </c>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="58"/>
+    </row>
+    <row r="61" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="36"/>
+      <c r="B61" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="36"/>
+      <c r="B62" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="51"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="38"/>
+      <c r="B63" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="52">
+        <v>43795</v>
+      </c>
+      <c r="D63" s="52">
+        <v>43798</v>
+      </c>
+      <c r="E63" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="38"/>
+      <c r="B64" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="C64" s="52">
+        <v>43795</v>
+      </c>
+      <c r="D64" s="52">
+        <v>43798</v>
+      </c>
+      <c r="E64" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="38"/>
+      <c r="B65" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="52">
+        <v>43795</v>
+      </c>
+      <c r="D65" s="52">
+        <v>43798</v>
+      </c>
+      <c r="E65" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="38"/>
+      <c r="B66" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="52">
+        <v>43795</v>
+      </c>
+      <c r="D66" s="52">
+        <v>43798</v>
+      </c>
+      <c r="E66" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="38"/>
+      <c r="B67" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="C67" s="57"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="58"/>
+    </row>
+    <row r="68" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="36"/>
+      <c r="B68" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="36"/>
+      <c r="B69" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" s="51"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="38"/>
+      <c r="B70" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C70" s="52">
+        <v>43799</v>
+      </c>
+      <c r="D70" s="52">
+        <v>43801</v>
+      </c>
+      <c r="E70" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="38"/>
+      <c r="B71" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" s="52">
+        <v>43799</v>
+      </c>
+      <c r="D71" s="52">
+        <v>43801</v>
+      </c>
+      <c r="E71" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="38"/>
+      <c r="B72" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="36"/>
+      <c r="B73" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C73" s="51"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="38"/>
+      <c r="B74" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C74" s="77">
+        <v>43802</v>
+      </c>
+      <c r="D74" s="77">
+        <v>43805</v>
+      </c>
+      <c r="E74" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="38"/>
+      <c r="B75" s="56" t="s">
+        <v>268</v>
+      </c>
+      <c r="C75" s="57"/>
+      <c r="D75" s="57"/>
+      <c r="E75" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B34:E34"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -1556,11 +2842,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="63" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
       <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1659,10 +2945,10 @@
       <c r="A13" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="65" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1670,8 +2956,8 @@
       <c r="A14" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
     </row>
     <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
@@ -1794,17 +3080,17 @@
       <c r="A26" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="41"/>
+      <c r="C26" s="69"/>
     </row>
     <row r="27" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="42"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="70"/>
     </row>
     <row r="28" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
@@ -2137,10 +3423,10 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="B60" s="32" t="s">
+      <c r="B60" s="60" t="s">
         <v>176</v>
       </c>
       <c r="C60" s="28" t="s">
@@ -2148,22 +3434,22 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="33"/>
-      <c r="B61" s="33"/>
+      <c r="A61" s="61"/>
+      <c r="B61" s="61"/>
       <c r="C61" s="28" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="33"/>
-      <c r="B62" s="33"/>
+      <c r="A62" s="61"/>
+      <c r="B62" s="61"/>
       <c r="C62" s="28" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="34"/>
-      <c r="B63" s="34"/>
+      <c r="A63" s="62"/>
+      <c r="B63" s="62"/>
       <c r="C63" s="29" t="s">
         <v>191</v>
       </c>
@@ -2194,12 +3480,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="109.42578125" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2211,12 +3497,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="71" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="73"/>
     </row>
     <row r="2" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>

--- a/desarrollo/SIC/Documentos/PPSIC.xlsx
+++ b/desarrollo/SIC/Documentos/PPSIC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PracticandoGit02\Tecnalogia\desarrollo\SIC\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E54F22-CF6E-4DCA-8A0C-F27104EBDAF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756A9D21-890C-4F75-90EF-4E956E3A3AB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="289">
   <si>
     <t>Duración</t>
   </si>
@@ -867,42 +867,15 @@
     </r>
   </si>
   <si>
-    <t>Aplicación web para el control de ventas</t>
-  </si>
-  <si>
     <t>Fin</t>
   </si>
   <si>
     <t xml:space="preserve">      Diseño detallado</t>
   </si>
   <si>
-    <t xml:space="preserve">        Diseño componentes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Diseño de las interfaces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Diseño de la base de datos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Diseño de los servicios o transacciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Diseño de UX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Hito 09 - Despliegue completo</t>
-  </si>
-  <si>
     <t xml:space="preserve">       Hito 01 - Viabilidad del proyecto</t>
   </si>
   <si>
-    <t xml:space="preserve">         Elaboración del plan de viabilidad del proyecto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Elaboración del acta de constitución del proyecto</t>
-  </si>
-  <si>
     <t xml:space="preserve">       Hito 02 -  Constitución del proyecto</t>
   </si>
   <si>
@@ -912,9 +885,6 @@
     <t xml:space="preserve">      Hito 03 - Requisitos</t>
   </si>
   <si>
-    <t xml:space="preserve">         Elaboración de historias de usuario</t>
-  </si>
-  <si>
     <t xml:space="preserve">      Hito 04 - Arquitectura de software</t>
   </si>
   <si>
@@ -924,17 +894,104 @@
     <t xml:space="preserve">      Hito 07 - Manuales</t>
   </si>
   <si>
-    <t xml:space="preserve">      Hito 08 - Post implementación completa</t>
-  </si>
-  <si>
     <t xml:space="preserve">       Hito 06 - Pruebas</t>
+  </si>
+  <si>
+    <t>Aplicación web para el control de ventas para Digital Copier S.A.C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Planificar reunión con el Representante de la empresa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Evaluar el proyecto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Elaborar del plan de viabilidad del proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Definir alcance y objetivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Elaborar requerimientos del proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Analizar y evaluar costos y recursos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Elaborar acta de constitución del proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Planificar la reunión con los Stakeholders </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Elaborar de historias de usuario</t>
+  </si>
+  <si>
+    <t>17 días</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Elaborar la propuesta de arquitectura del sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Generar el diseño a alto nivel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Diseñar componentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Diseñar interfaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Diseñar los servicios o transacciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Diseñar la base de datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Aplicar UX</t>
+  </si>
+  <si>
+    <t>16 días</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Preparar el entorno de desarrollo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Elaboración y aplicación de pruebas unitarias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Elaboración y aplicación de pruebas de integración</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Preparar el entorno de pruebas de rendimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Preparar el entorno pruebas de aceptación del usuario </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Preparar el entorno de producción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Hito 08  - Despliegue completo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Hito 09 - Post implementación completa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Desarrollo de módulos</t>
+  </si>
+  <si>
+    <t>21 días</t>
+  </si>
+  <si>
+    <t>107 días</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1012,14 +1069,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
@@ -1072,8 +1121,24 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="8"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1112,7 +1177,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1312,7 +1383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1405,40 +1476,49 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1446,44 +1526,41 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1526,6 +1603,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1806,11 +1896,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF30F305-AFDE-4E74-BF64-DC1BF3E91720}">
-  <dimension ref="A1:F90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="109.42578125" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1819,26 +1909,29 @@
     <col min="2" max="2" width="67.140625" style="42" customWidth="1"/>
     <col min="3" max="4" width="15.7109375" style="43" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" style="44" customWidth="1"/>
-    <col min="6" max="16384" width="109.42578125" style="32"/>
+    <col min="6" max="6" width="7.7109375" style="32" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="32" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="32" customWidth="1"/>
+    <col min="9" max="16384" width="109.42578125" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
-        <v>249</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53"/>
       <c r="B2" s="54"/>
       <c r="C2" s="54"/>
       <c r="D2" s="54"/>
       <c r="E2" s="54"/>
     </row>
-    <row r="3" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="48" t="s">
         <v>165</v>
@@ -1847,22 +1940,26 @@
         <v>245</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E3" s="49" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33"/>
       <c r="B4" s="34"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="G4" s="32">
+        <f>G5+G24+G35+G47+G60+G67</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="B5" s="45" t="s">
         <v>3</v>
@@ -1873,8 +1970,12 @@
         <v>4</v>
       </c>
       <c r="F5" s="37"/>
-    </row>
-    <row r="6" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="46">
+        <f>SUM(G6+G11+G18)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="50" t="s">
         <v>5</v>
@@ -1884,11 +1985,15 @@
       <c r="E6" s="51" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="79">
+        <f>SUM(G7:G9)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="38"/>
       <c r="B7" s="39" t="s">
-        <v>7</v>
+        <v>260</v>
       </c>
       <c r="C7" s="52">
         <v>43739</v>
@@ -1899,11 +2004,14 @@
       <c r="E7" s="40" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38"/>
       <c r="B8" s="39" t="s">
-        <v>9</v>
+        <v>261</v>
       </c>
       <c r="C8" s="52">
         <v>43741</v>
@@ -1914,11 +2022,14 @@
       <c r="E8" s="40" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
       <c r="B9" s="39" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C9" s="52">
         <v>43743</v>
@@ -1929,17 +2040,20 @@
       <c r="E9" s="40" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
-      <c r="B10" s="56" t="s">
-        <v>258</v>
-      </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="58"/>
-    </row>
-    <row r="11" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="61"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36"/>
       <c r="B11" s="50" t="s">
         <v>13</v>
@@ -1949,11 +2063,15 @@
       <c r="E11" s="51" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="79">
+        <f>SUM(G12:G16)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="39" t="s">
-        <v>15</v>
+        <v>263</v>
       </c>
       <c r="C12" s="52">
         <v>43745</v>
@@ -1964,11 +2082,14 @@
       <c r="E12" s="40" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="39" t="s">
-        <v>16</v>
+        <v>264</v>
       </c>
       <c r="C13" s="52">
         <v>43747</v>
@@ -1979,8 +2100,11 @@
       <c r="E13" s="40" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="39" t="s">
         <v>17</v>
@@ -1992,13 +2116,16 @@
         <v>43750</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="G14" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="39" t="s">
-        <v>18</v>
+        <v>265</v>
       </c>
       <c r="C15" s="52">
         <v>43750</v>
@@ -2007,13 +2134,16 @@
         <v>43751</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="G15" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="39" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C16" s="52">
         <v>43751</v>
@@ -2024,17 +2154,20 @@
       <c r="E16" s="40" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
-      <c r="B17" s="56" t="s">
-        <v>261</v>
-      </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-    </row>
-    <row r="18" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="59" t="s">
+        <v>252</v>
+      </c>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="61"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
       <c r="B18" s="50" t="s">
         <v>20</v>
@@ -2044,8 +2177,12 @@
       <c r="E18" s="51" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="79">
+        <f>SUM(G19:G22)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
       <c r="B19" s="39" t="s">
         <v>22</v>
@@ -2059,11 +2196,14 @@
       <c r="E19" s="40" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="38"/>
       <c r="B20" s="39" t="s">
-        <v>23</v>
+        <v>267</v>
       </c>
       <c r="C20" s="52">
         <v>43759</v>
@@ -2074,11 +2214,14 @@
       <c r="E20" s="40" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
       <c r="B21" s="39" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C21" s="52">
         <v>43765</v>
@@ -2089,8 +2232,11 @@
       <c r="E21" s="40" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="38"/>
       <c r="B22" s="39" t="s">
         <v>26</v>
@@ -2104,33 +2250,36 @@
       <c r="E22" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="32">
-        <f>D22-C22</f>
+      <c r="G22" s="32">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="56" t="s">
-        <v>263</v>
-      </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="58"/>
-    </row>
-    <row r="24" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
+    <row r="23" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="77"/>
+      <c r="B23" s="59" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="78"/>
       <c r="B24" s="45" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
       <c r="E24" s="46" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+        <v>269</v>
+      </c>
+      <c r="G24" s="46">
+        <f>SUM(G28+G25)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="78"/>
       <c r="B25" s="50" t="s">
         <v>30</v>
       </c>
@@ -2139,11 +2288,15 @@
       <c r="E25" s="51" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+      <c r="G25" s="79">
+        <f>SUM(G26:G27)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="77"/>
       <c r="B26" s="39" t="s">
-        <v>31</v>
+        <v>270</v>
       </c>
       <c r="C26" s="52">
         <v>43771</v>
@@ -2154,11 +2307,14 @@
       <c r="E26" s="40" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
+      <c r="G26" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="77"/>
       <c r="B27" s="39" t="s">
-        <v>33</v>
+        <v>271</v>
       </c>
       <c r="C27" s="52">
         <v>43774</v>
@@ -2169,22 +2325,29 @@
       <c r="E27" s="40" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+      <c r="G27" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="78"/>
       <c r="B28" s="50" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C28" s="51"/>
       <c r="D28" s="51"/>
       <c r="E28" s="51" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
+      <c r="G28" s="79">
+        <f>SUM(G29:G34)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="77"/>
       <c r="B29" s="39" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="C29" s="52">
         <v>43774</v>
@@ -2195,11 +2358,14 @@
       <c r="E29" s="40" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="38"/>
       <c r="B30" s="39" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="C30" s="52">
         <v>43782</v>
@@ -2210,11 +2376,14 @@
       <c r="E30" s="40" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="38"/>
       <c r="B31" s="39" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="C31" s="52">
         <v>43782</v>
@@ -2225,11 +2394,14 @@
       <c r="E31" s="40" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="38"/>
       <c r="B32" s="39" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="C32" s="52">
         <v>43782</v>
@@ -2240,11 +2412,14 @@
       <c r="E32" s="40" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="38"/>
       <c r="B33" s="39" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="C33" s="52">
         <v>43784</v>
@@ -2255,17 +2430,20 @@
       <c r="E33" s="40" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="38"/>
-      <c r="B34" s="56" t="s">
-        <v>265</v>
-      </c>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="58"/>
-    </row>
-    <row r="35" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="59" t="s">
+        <v>255</v>
+      </c>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="61"/>
+    </row>
+    <row r="35" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="36"/>
       <c r="B35" s="45" t="s">
         <v>41</v>
@@ -2273,10 +2451,14 @@
       <c r="C35" s="46"/>
       <c r="D35" s="46"/>
       <c r="E35" s="46" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="G35" s="46">
+        <f>G36+G43</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="36"/>
       <c r="B36" s="50" t="s">
         <v>43</v>
@@ -2286,74 +2468,120 @@
       <c r="E36" s="51" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G36" s="79">
+        <f>SUM(G37:G42)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="38"/>
       <c r="B37" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
+        <v>278</v>
+      </c>
+      <c r="C37" s="52">
+        <v>43786</v>
+      </c>
+      <c r="D37" s="52">
+        <v>43788</v>
+      </c>
       <c r="E37" s="40" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
       <c r="B38" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
+        <v>279</v>
+      </c>
+      <c r="C38" s="52">
+        <v>43788</v>
+      </c>
+      <c r="D38" s="52">
+        <v>43790</v>
+      </c>
       <c r="E38" s="40" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="38"/>
       <c r="B39" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
+        <v>280</v>
+      </c>
+      <c r="C39" s="52">
+        <v>43788</v>
+      </c>
+      <c r="D39" s="52">
+        <v>43790</v>
+      </c>
       <c r="E39" s="40" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G39" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="38"/>
       <c r="B40" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
+        <v>281</v>
+      </c>
+      <c r="C40" s="52">
+        <v>43788</v>
+      </c>
+      <c r="D40" s="52">
+        <v>43790</v>
+      </c>
       <c r="E40" s="40" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G40" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="38"/>
       <c r="B41" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
+        <v>282</v>
+      </c>
+      <c r="C41" s="52">
+        <v>43788</v>
+      </c>
+      <c r="D41" s="52">
+        <v>43790</v>
+      </c>
       <c r="E41" s="40" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G41" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="38"/>
       <c r="B42" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
+        <v>283</v>
+      </c>
+      <c r="C42" s="52">
+        <v>43790</v>
+      </c>
+      <c r="D42" s="52">
+        <v>43792</v>
+      </c>
       <c r="E42" s="40" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G42" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="36"/>
       <c r="B43" s="50" t="s">
         <v>50</v>
@@ -2361,529 +2589,512 @@
       <c r="C43" s="51"/>
       <c r="D43" s="51"/>
       <c r="E43" s="51" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="G43" s="79">
+        <f>SUM(G44:G45)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="38"/>
       <c r="B44" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
+      <c r="C44" s="52">
+        <v>43790</v>
+      </c>
+      <c r="D44" s="52">
+        <v>43791</v>
+      </c>
       <c r="E44" s="40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="G44" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
       <c r="B45" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
+        <v>286</v>
+      </c>
+      <c r="C45" s="52">
+        <v>43790</v>
+      </c>
+      <c r="D45" s="52">
+        <v>43798</v>
+      </c>
       <c r="E45" s="40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
-      <c r="B46" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
-      <c r="B47" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
-      <c r="B48" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="G45" s="32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="80"/>
+      <c r="B46" s="59" t="s">
+        <v>256</v>
+      </c>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="61"/>
+    </row>
+    <row r="47" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="36"/>
+      <c r="B47" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="G47" s="46">
+        <f>G48+G54</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="36"/>
+      <c r="B48" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="79">
+        <f>SUM(G49:G53)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="38"/>
       <c r="B49" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
+        <v>63</v>
+      </c>
+      <c r="C49" s="52">
+        <v>43792</v>
+      </c>
+      <c r="D49" s="52">
+        <v>43794</v>
+      </c>
       <c r="E49" s="40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G49" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="38"/>
-      <c r="B50" s="56" t="s">
-        <v>266</v>
-      </c>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="58"/>
-    </row>
-    <row r="51" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="36"/>
-      <c r="B51" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" s="46"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="46" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="36"/>
-      <c r="B52" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51" t="s">
+      <c r="B50" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="52">
+        <v>43792</v>
+      </c>
+      <c r="D50" s="52">
+        <v>43794</v>
+      </c>
+      <c r="E50" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="38"/>
+      <c r="B51" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="52">
+        <v>43792</v>
+      </c>
+      <c r="D51" s="52">
+        <v>43794</v>
+      </c>
+      <c r="E51" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="38"/>
+      <c r="B52" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="52">
+        <v>43792</v>
+      </c>
+      <c r="D52" s="52">
+        <v>43794</v>
+      </c>
+      <c r="E52" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="55"/>
+      <c r="B53" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="36"/>
+      <c r="B54" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="38"/>
-      <c r="B53" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="38"/>
-      <c r="B54" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G54" s="79">
+        <f>SUM(G55:G59)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="38"/>
       <c r="B55" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
+        <v>69</v>
+      </c>
+      <c r="C55" s="52">
+        <v>43792</v>
+      </c>
+      <c r="D55" s="52">
+        <v>43794</v>
+      </c>
       <c r="E55" s="40" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G55" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="38"/>
       <c r="B56" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
+        <v>70</v>
+      </c>
+      <c r="C56" s="52">
+        <v>43792</v>
+      </c>
+      <c r="D56" s="52">
+        <v>43794</v>
+      </c>
       <c r="E56" s="40" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G56" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="38"/>
       <c r="B57" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
+        <v>65</v>
+      </c>
+      <c r="C57" s="52">
+        <v>43792</v>
+      </c>
+      <c r="D57" s="52">
+        <v>43794</v>
+      </c>
       <c r="E57" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="38"/>
+      <c r="B58" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="52">
+        <v>43792</v>
+      </c>
+      <c r="D58" s="52">
+        <v>43794</v>
+      </c>
+      <c r="E58" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="38"/>
+      <c r="B59" s="59" t="s">
+        <v>258</v>
+      </c>
+      <c r="C59" s="60"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="61"/>
+    </row>
+    <row r="60" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="36"/>
+      <c r="B60" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="G60" s="46">
+        <f>G61</f>
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="36"/>
-      <c r="B58" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="38"/>
-      <c r="B59" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="38"/>
-      <c r="B60" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="38"/>
-      <c r="B61" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="36"/>
+      <c r="B61" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="G61" s="79">
+        <f>SUM(G62:G66)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="38"/>
       <c r="B62" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
+        <v>83</v>
+      </c>
+      <c r="C62" s="52">
+        <v>43795</v>
+      </c>
+      <c r="D62" s="52">
+        <v>43798</v>
+      </c>
       <c r="E62" s="40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="36"/>
-      <c r="B63" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="G62" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="38"/>
+      <c r="B63" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="C63" s="52">
+        <v>43795</v>
+      </c>
+      <c r="D63" s="52">
+        <v>43798</v>
+      </c>
+      <c r="E63" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="38"/>
       <c r="B64" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C64" s="40"/>
-      <c r="D64" s="40"/>
+        <v>84</v>
+      </c>
+      <c r="C64" s="52">
+        <v>43795</v>
+      </c>
+      <c r="D64" s="52">
+        <v>43798</v>
+      </c>
       <c r="E64" s="40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="G64" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="38"/>
       <c r="B65" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C65" s="40"/>
-      <c r="D65" s="40"/>
+        <v>85</v>
+      </c>
+      <c r="C65" s="52">
+        <v>43795</v>
+      </c>
+      <c r="D65" s="52">
+        <v>43798</v>
+      </c>
       <c r="E65" s="40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="G65" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="38"/>
-      <c r="B66" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="38"/>
-      <c r="B67" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C67" s="40"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="38"/>
-      <c r="B68" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="36"/>
-      <c r="B69" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="51" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="59" t="s">
+        <v>257</v>
+      </c>
+      <c r="C66" s="60"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="61"/>
+    </row>
+    <row r="67" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="36"/>
+      <c r="B67" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="G67" s="46">
+        <f>G68+G72</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="36"/>
+      <c r="B68" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" s="51"/>
+      <c r="D68" s="51"/>
+      <c r="E68" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="G68" s="79">
+        <f>SUM(G69:G71)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="38"/>
+      <c r="B69" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" s="52">
+        <v>43799</v>
+      </c>
+      <c r="D69" s="52">
+        <v>43801</v>
+      </c>
+      <c r="E69" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="38"/>
       <c r="B70" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="C70" s="40"/>
-      <c r="D70" s="40"/>
+        <v>91</v>
+      </c>
+      <c r="C70" s="52">
+        <v>43799</v>
+      </c>
+      <c r="D70" s="52">
+        <v>43801</v>
+      </c>
       <c r="E70" s="40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="G70" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="38"/>
-      <c r="B71" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="38"/>
-      <c r="B72" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="59" t="s">
+        <v>284</v>
+      </c>
+      <c r="C71" s="60"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="36"/>
+      <c r="B72" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C72" s="51"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" s="79">
+        <f>SUM(G73)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="38"/>
       <c r="B73" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C73" s="40"/>
-      <c r="D73" s="40"/>
+        <v>94</v>
+      </c>
+      <c r="C73" s="58">
+        <v>43802</v>
+      </c>
+      <c r="D73" s="58">
+        <v>43805</v>
+      </c>
       <c r="E73" s="40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="G73" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="38"/>
-      <c r="B74" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C74" s="40"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="38"/>
-      <c r="B75" s="56" t="s">
-        <v>269</v>
-      </c>
-      <c r="C75" s="57"/>
-      <c r="D75" s="57"/>
-      <c r="E75" s="58"/>
-    </row>
-    <row r="76" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="36"/>
-      <c r="B76" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="C76" s="46"/>
-      <c r="D76" s="46"/>
-      <c r="E76" s="46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="36"/>
-      <c r="B77" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="C77" s="51"/>
-      <c r="D77" s="51"/>
-      <c r="E77" s="51" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="38"/>
-      <c r="B78" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C78" s="40"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="38"/>
-      <c r="B79" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="C79" s="40"/>
-      <c r="D79" s="40"/>
-      <c r="E79" s="40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="38"/>
-      <c r="B80" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C80" s="40"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="38"/>
-      <c r="B81" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C81" s="40"/>
-      <c r="D81" s="40"/>
-      <c r="E81" s="40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="38"/>
-      <c r="B82" s="56" t="s">
-        <v>267</v>
-      </c>
-      <c r="C82" s="57"/>
-      <c r="D82" s="57"/>
-      <c r="E82" s="58"/>
-    </row>
-    <row r="83" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="36"/>
-      <c r="B83" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="C83" s="46"/>
-      <c r="D83" s="46"/>
-      <c r="E83" s="46" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="36"/>
-      <c r="B84" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="C84" s="51"/>
-      <c r="D84" s="51"/>
-      <c r="E84" s="51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="38"/>
-      <c r="B85" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="C85" s="40"/>
-      <c r="D85" s="40"/>
-      <c r="E85" s="40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="38"/>
-      <c r="B86" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="C86" s="40"/>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="38"/>
-      <c r="B87" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="C87" s="40"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="36"/>
-      <c r="B88" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="C88" s="51"/>
-      <c r="D88" s="51"/>
-      <c r="E88" s="51" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="38"/>
-      <c r="B89" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="C89" s="40"/>
-      <c r="D89" s="40"/>
-      <c r="E89" s="40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="38"/>
-      <c r="B90" s="56" t="s">
-        <v>268</v>
-      </c>
-      <c r="C90" s="57"/>
-      <c r="D90" s="57"/>
-      <c r="E90" s="58"/>
+      <c r="B74" s="59" t="s">
+        <v>285</v>
+      </c>
+      <c r="C74" s="60"/>
+      <c r="D74" s="60"/>
+      <c r="E74" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="B50:E50"/>
+  <mergeCells count="10">
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B46:E46"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B71:E71"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2891,7 +3102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2906,11 +3117,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3009,10 +3220,10 @@
       <c r="A13" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="67" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3020,8 +3231,8 @@
       <c r="A14" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
     </row>
     <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
@@ -3144,17 +3355,17 @@
       <c r="A26" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="69"/>
+      <c r="C26" s="71"/>
     </row>
     <row r="27" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="B27" s="68"/>
-      <c r="C27" s="70"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="72"/>
     </row>
     <row r="28" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
@@ -3487,10 +3698,10 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="60" t="s">
+      <c r="A60" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="B60" s="60" t="s">
+      <c r="B60" s="62" t="s">
         <v>176</v>
       </c>
       <c r="C60" s="28" t="s">
@@ -3498,22 +3709,22 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="61"/>
-      <c r="B61" s="61"/>
+      <c r="A61" s="63"/>
+      <c r="B61" s="63"/>
       <c r="C61" s="28" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="61"/>
-      <c r="B62" s="61"/>
+      <c r="A62" s="63"/>
+      <c r="B62" s="63"/>
       <c r="C62" s="28" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="62"/>
-      <c r="B63" s="62"/>
+      <c r="A63" s="64"/>
+      <c r="B63" s="64"/>
       <c r="C63" s="29" t="s">
         <v>191</v>
       </c>
@@ -3545,7 +3756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
@@ -3561,12 +3772,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="75"/>
     </row>
     <row r="2" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>

--- a/desarrollo/SIC/Documentos/PPSIC.xlsx
+++ b/desarrollo/SIC/Documentos/PPSIC.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PracticandoGit02\Tecnalogia\desarrollo\SIC\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\fire-fox\Tecnalogia\desarrollo\SIC\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451CBD99-4EAF-4BF5-AFF3-20E64D28A259}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma V1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="90">
   <si>
     <t>Duración</t>
   </si>
@@ -306,7 +305,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -539,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -628,20 +627,23 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -922,14 +924,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="109.42578125" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="109.42578125" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="10" customWidth="1"/>
     <col min="2" max="2" width="67.140625" style="11" customWidth="1"/>
@@ -942,13 +944,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
@@ -1072,12 +1074,14 @@
     </row>
     <row r="10" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
+      <c r="C10" s="37">
+        <v>43745</v>
+      </c>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="11" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
@@ -1186,12 +1190,14 @@
     </row>
     <row r="17" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
+      <c r="C17" s="37">
+        <v>43753</v>
+      </c>
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
     </row>
     <row r="18" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
@@ -1245,7 +1251,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="8" t="s">
         <v>89</v>
       </c>
@@ -1282,12 +1288,14 @@
     </row>
     <row r="23" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
+      <c r="C23" s="37">
+        <v>43771</v>
+      </c>
+      <c r="D23" s="35"/>
+      <c r="E23" s="36"/>
     </row>
     <row r="24" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
@@ -1462,12 +1470,14 @@
     </row>
     <row r="34" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="34"/>
+      <c r="C34" s="37">
+        <v>43786</v>
+      </c>
+      <c r="D34" s="35"/>
+      <c r="E34" s="36"/>
     </row>
     <row r="35" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
@@ -1660,12 +1670,14 @@
     </row>
     <row r="46" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="31"/>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="34"/>
+      <c r="C46" s="37">
+        <v>43798</v>
+      </c>
+      <c r="D46" s="35"/>
+      <c r="E46" s="36"/>
     </row>
     <row r="47" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
@@ -1869,12 +1881,14 @@
     </row>
     <row r="59" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
-      <c r="B59" s="32" t="s">
+      <c r="B59" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="34"/>
+      <c r="C59" s="37">
+        <v>43794</v>
+      </c>
+      <c r="D59" s="35"/>
+      <c r="E59" s="36"/>
     </row>
     <row r="60" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
@@ -1980,12 +1994,14 @@
     </row>
     <row r="66" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
-      <c r="B66" s="32" t="s">
+      <c r="B66" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="34"/>
+      <c r="C66" s="37">
+        <v>43798</v>
+      </c>
+      <c r="D66" s="35"/>
+      <c r="E66" s="36"/>
     </row>
     <row r="67" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
@@ -2055,14 +2071,14 @@
     </row>
     <row r="71" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
-      <c r="B71" s="32" t="s">
+      <c r="B71" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="34" t="s">
-        <v>7</v>
-      </c>
+      <c r="C71" s="37">
+        <v>43801</v>
+      </c>
+      <c r="D71" s="35"/>
+      <c r="E71" s="36"/>
       <c r="G71" s="1">
         <v>0</v>
       </c>
@@ -2102,25 +2118,27 @@
     </row>
     <row r="74" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="34"/>
+      <c r="C74" s="37">
+        <v>43805</v>
+      </c>
+      <c r="D74" s="35"/>
+      <c r="E74" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C74:E74"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C59:E59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/desarrollo/SIC/Documentos/PPSIC.xlsx
+++ b/desarrollo/SIC/Documentos/PPSIC.xlsx
@@ -62,9 +62,6 @@
     <t>8 días</t>
   </si>
   <si>
-    <t xml:space="preserve">         Definir entregables</t>
-  </si>
-  <si>
     <t xml:space="preserve">      Análisis y levantamiento de requisitos</t>
   </si>
   <si>
@@ -227,9 +224,6 @@
     <t xml:space="preserve">         Definir alcance y objetivos</t>
   </si>
   <si>
-    <t xml:space="preserve">         Elaborar requerimientos del proyecto</t>
-  </si>
-  <si>
     <t xml:space="preserve">         Analizar y evaluar costos y recursos</t>
   </si>
   <si>
@@ -299,7 +293,13 @@
     <t>107 días</t>
   </si>
   <si>
-    <t xml:space="preserve">         Elaborar de casos de uso</t>
+    <t xml:space="preserve">         Elaborar documento análisis de negocio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Levantar requerimientos del proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Elaborar documento especificaciones requisito</t>
   </si>
 </sst>
 </file>
@@ -384,7 +384,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -424,6 +424,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -630,19 +636,28 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -927,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="109.42578125" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -944,13 +959,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+      <c r="A1" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
@@ -962,13 +977,13 @@
     <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
       <c r="B3" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>49</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>50</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>0</v>
@@ -980,7 +995,7 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G4" s="1">
         <f>G5+G24+G35+G47+G60+G67</f>
@@ -1021,7 +1036,7 @@
     <row r="7" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="21">
         <v>43739</v>
@@ -1039,7 +1054,7 @@
     <row r="8" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="21">
         <v>43741</v>
@@ -1056,16 +1071,16 @@
     </row>
     <row r="9" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="21">
+      <c r="B9" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="39">
         <v>43743</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="39">
         <v>43745</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="40" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="1">
@@ -1074,10 +1089,10 @@
     </row>
     <row r="10" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="37">
+      <c r="B10" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="34">
         <v>43745</v>
       </c>
       <c r="D10" s="35"/>
@@ -1101,7 +1116,7 @@
     <row r="12" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="21">
         <v>43745</v>
@@ -1119,7 +1134,7 @@
     <row r="13" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C13" s="21">
         <v>43747</v>
@@ -1136,17 +1151,17 @@
     </row>
     <row r="14" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="21">
+      <c r="B14" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="39">
         <v>43749</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="39">
         <v>43750</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>54</v>
+      <c r="E14" s="40" t="s">
+        <v>53</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -1155,7 +1170,7 @@
     <row r="15" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C15" s="21">
         <v>43750</v>
@@ -1164,7 +1179,7 @@
         <v>43751</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -1172,16 +1187,16 @@
     </row>
     <row r="16" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="21">
+      <c r="B16" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="39">
         <v>43751</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="39">
         <v>43753</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="40" t="s">
         <v>5</v>
       </c>
       <c r="G16" s="1">
@@ -1190,10 +1205,10 @@
     </row>
     <row r="17" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="37">
+      <c r="B17" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="34">
         <v>43753</v>
       </c>
       <c r="D17" s="35"/>
@@ -1202,12 +1217,12 @@
     <row r="18" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18" s="30">
         <f>SUM(G19:G22)</f>
@@ -1217,7 +1232,7 @@
     <row r="19" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="21">
         <v>43753</v>
@@ -1235,7 +1250,7 @@
     <row r="20" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C20" s="21">
         <v>43759</v>
@@ -1252,17 +1267,17 @@
     </row>
     <row r="21" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="39">
         <v>43765</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="39">
         <v>43768</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>14</v>
+      <c r="E21" s="40" t="s">
+        <v>13</v>
       </c>
       <c r="G21" s="1">
         <v>3</v>
@@ -1271,7 +1286,7 @@
     <row r="22" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="21">
         <v>43768</v>
@@ -1280,7 +1295,7 @@
         <v>43771</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G22" s="1">
         <v>3</v>
@@ -1288,10 +1303,10 @@
     </row>
     <row r="23" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
-      <c r="B23" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="37">
+      <c r="B23" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="34">
         <v>43771</v>
       </c>
       <c r="D23" s="35"/>
@@ -1300,12 +1315,12 @@
     <row r="24" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
       <c r="B24" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G24" s="15">
         <f>SUM(G28+G25)</f>
@@ -1315,12 +1330,12 @@
     <row r="25" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29"/>
       <c r="B25" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G25" s="30">
         <f>SUM(G26:G27)</f>
@@ -1330,7 +1345,7 @@
     <row r="26" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
       <c r="B26" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C26" s="21">
         <v>43771</v>
@@ -1339,7 +1354,7 @@
         <v>43774</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G26" s="1">
         <v>3</v>
@@ -1348,7 +1363,7 @@
     <row r="27" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
       <c r="B27" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C27" s="21">
         <v>43774</v>
@@ -1366,12 +1381,12 @@
     <row r="28" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
       <c r="B28" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G28" s="30">
         <f>SUM(G29:G34)</f>
@@ -1381,7 +1396,7 @@
     <row r="29" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
       <c r="B29" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C29" s="21">
         <v>43774</v>
@@ -1399,7 +1414,7 @@
     <row r="30" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C30" s="21">
         <v>43782</v>
@@ -1417,7 +1432,7 @@
     <row r="31" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C31" s="21">
         <v>43782</v>
@@ -1435,7 +1450,7 @@
     <row r="32" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C32" s="21">
         <v>43782</v>
@@ -1453,7 +1468,7 @@
     <row r="33" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C33" s="21">
         <v>43784</v>
@@ -1470,10 +1485,10 @@
     </row>
     <row r="34" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
-      <c r="B34" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="37">
+      <c r="B34" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="34">
         <v>43786</v>
       </c>
       <c r="D34" s="35"/>
@@ -1482,12 +1497,12 @@
     <row r="35" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G35" s="15">
         <f>G36+G43</f>
@@ -1497,12 +1512,12 @@
     <row r="36" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
       <c r="E36" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G36" s="30">
         <f>SUM(G37:G42)</f>
@@ -1512,7 +1527,7 @@
     <row r="37" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C37" s="21">
         <v>43786</v>
@@ -1530,7 +1545,7 @@
     <row r="38" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C38" s="21">
         <v>43788</v>
@@ -1548,7 +1563,7 @@
     <row r="39" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C39" s="21">
         <v>43788</v>
@@ -1566,7 +1581,7 @@
     <row r="40" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C40" s="21">
         <v>43788</v>
@@ -1584,7 +1599,7 @@
     <row r="41" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C41" s="21">
         <v>43788</v>
@@ -1602,7 +1617,7 @@
     <row r="42" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C42" s="21">
         <v>43790</v>
@@ -1620,12 +1635,12 @@
     <row r="43" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
       <c r="E43" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G43" s="30">
         <f>SUM(G44:G45)</f>
@@ -1635,7 +1650,7 @@
     <row r="44" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C44" s="21">
         <v>43790</v>
@@ -1644,7 +1659,7 @@
         <v>43791</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G44" s="1">
         <v>1</v>
@@ -1653,7 +1668,7 @@
     <row r="45" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C45" s="21">
         <v>43790</v>
@@ -1670,10 +1685,10 @@
     </row>
     <row r="46" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="31"/>
-      <c r="B46" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" s="37">
+      <c r="B46" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="34">
         <v>43798</v>
       </c>
       <c r="D46" s="35"/>
@@ -1682,12 +1697,12 @@
     <row r="47" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G47" s="15">
         <f>G48+G54</f>
@@ -1697,7 +1712,7 @@
     <row r="48" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="20"/>
@@ -1712,7 +1727,7 @@
     <row r="49" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C49" s="21">
         <v>43792</v>
@@ -1730,7 +1745,7 @@
     <row r="50" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C50" s="21">
         <v>43792</v>
@@ -1748,7 +1763,7 @@
     <row r="51" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C51" s="21">
         <v>43792</v>
@@ -1766,7 +1781,7 @@
     <row r="52" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C52" s="21">
         <v>43792</v>
@@ -1784,7 +1799,7 @@
     <row r="53" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
       <c r="B53" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C53" s="26"/>
       <c r="D53" s="26"/>
@@ -1795,7 +1810,7 @@
     <row r="54" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
@@ -1810,7 +1825,7 @@
     <row r="55" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C55" s="21">
         <v>43792</v>
@@ -1828,7 +1843,7 @@
     <row r="56" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C56" s="21">
         <v>43792</v>
@@ -1846,7 +1861,7 @@
     <row r="57" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C57" s="21">
         <v>43792</v>
@@ -1864,7 +1879,7 @@
     <row r="58" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C58" s="21">
         <v>43792</v>
@@ -1881,10 +1896,10 @@
     </row>
     <row r="59" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
-      <c r="B59" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" s="37">
+      <c r="B59" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="34">
         <v>43794</v>
       </c>
       <c r="D59" s="35"/>
@@ -1893,12 +1908,12 @@
     <row r="60" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G60" s="15">
         <f>G61</f>
@@ -1908,12 +1923,12 @@
     <row r="61" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
       <c r="E61" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G61" s="30">
         <f>SUM(G62:G66)</f>
@@ -1923,7 +1938,7 @@
     <row r="62" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C62" s="21">
         <v>43795</v>
@@ -1932,7 +1947,7 @@
         <v>43798</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G62" s="1">
         <v>3</v>
@@ -1941,7 +1956,7 @@
     <row r="63" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C63" s="21">
         <v>43795</v>
@@ -1950,7 +1965,7 @@
         <v>43798</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G63" s="1">
         <v>3</v>
@@ -1959,7 +1974,7 @@
     <row r="64" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C64" s="21">
         <v>43795</v>
@@ -1968,7 +1983,7 @@
         <v>43798</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G64" s="1">
         <v>3</v>
@@ -1977,7 +1992,7 @@
     <row r="65" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C65" s="21">
         <v>43795</v>
@@ -1986,7 +2001,7 @@
         <v>43798</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G65" s="1">
         <v>3</v>
@@ -1994,10 +2009,10 @@
     </row>
     <row r="66" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
-      <c r="B66" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C66" s="37">
+      <c r="B66" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" s="34">
         <v>43798</v>
       </c>
       <c r="D66" s="35"/>
@@ -2006,12 +2021,12 @@
     <row r="67" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G67" s="15">
         <f>G68+G72</f>
@@ -2021,7 +2036,7 @@
     <row r="68" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
@@ -2036,7 +2051,7 @@
     <row r="69" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C69" s="21">
         <v>43799</v>
@@ -2045,7 +2060,7 @@
         <v>43801</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G69" s="1">
         <v>3</v>
@@ -2054,7 +2069,7 @@
     <row r="70" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C70" s="21">
         <v>43799</v>
@@ -2063,7 +2078,7 @@
         <v>43801</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G70" s="1">
         <v>3</v>
@@ -2071,10 +2086,10 @@
     </row>
     <row r="71" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
-      <c r="B71" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="C71" s="37">
+      <c r="B71" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="34">
         <v>43801</v>
       </c>
       <c r="D71" s="35"/>
@@ -2086,12 +2101,12 @@
     <row r="72" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C72" s="20"/>
       <c r="D72" s="20"/>
       <c r="E72" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G72" s="30">
         <f>SUM(G73)</f>
@@ -2101,7 +2116,7 @@
     <row r="73" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="B73" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C73" s="27">
         <v>43802</v>
@@ -2110,7 +2125,7 @@
         <v>43805</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G73" s="1">
         <v>3</v>
@@ -2118,10 +2133,10 @@
     </row>
     <row r="74" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
-      <c r="B74" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C74" s="37">
+      <c r="B74" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" s="34">
         <v>43805</v>
       </c>
       <c r="D74" s="35"/>
